--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面_rev1.1（作成中）.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面_rev1.1（作成中）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFC-096\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF2D782-20EE-4D28-8F9A-9151C0BCE92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6CBC79-636A-44B2-9229-A3E86DED56BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="502" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="502" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="783">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -13534,6 +13534,23 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -13891,7 +13908,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -14094,6 +14111,12 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14136,11 +14159,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14621,8 +14641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J557" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q559" sqref="Q559"/>
+    <sheetView tabSelected="1" topLeftCell="H539" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B540" sqref="B540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -14643,20 +14663,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="20" t="s">
         <v>17</v>
       </c>
@@ -14668,10 +14688,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="77"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
@@ -14684,23 +14704,23 @@
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -14713,14 +14733,14 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -29622,9 +29642,15 @@
       <c r="M540" s="66" t="s">
         <v>763</v>
       </c>
-      <c r="N540" s="14"/>
-      <c r="O540" s="15"/>
-      <c r="P540" s="14"/>
+      <c r="N540" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O540" s="15">
+        <v>45624</v>
+      </c>
+      <c r="P540" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q540" s="16"/>
     </row>
     <row r="541" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
@@ -29650,9 +29676,15 @@
       <c r="M541" s="66" t="s">
         <v>763</v>
       </c>
-      <c r="N541" s="14"/>
-      <c r="O541" s="15"/>
-      <c r="P541" s="14"/>
+      <c r="N541" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O541" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P541" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q541" s="16"/>
     </row>
     <row r="542" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
@@ -29680,9 +29712,15 @@
       <c r="M542" s="67" t="s">
         <v>764</v>
       </c>
-      <c r="N542" s="14"/>
-      <c r="O542" s="15"/>
-      <c r="P542" s="14"/>
+      <c r="N542" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O542" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P542" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q542" s="16"/>
     </row>
     <row r="543" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
@@ -29704,15 +29742,21 @@
       <c r="I543" s="28"/>
       <c r="J543" s="28"/>
       <c r="K543" s="28"/>
-      <c r="L543" s="82" t="s">
+      <c r="L543" s="68" t="s">
         <v>775</v>
       </c>
       <c r="M543" s="67" t="s">
         <v>765</v>
       </c>
-      <c r="N543" s="14"/>
-      <c r="O543" s="15"/>
-      <c r="P543" s="14"/>
+      <c r="N543" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O543" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P543" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q543" s="16"/>
     </row>
     <row r="544" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
@@ -29738,9 +29782,15 @@
       <c r="M544" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="N544" s="14"/>
-      <c r="O544" s="15"/>
-      <c r="P544" s="14"/>
+      <c r="N544" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O544" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P544" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q544" s="16"/>
     </row>
     <row r="545" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -29764,9 +29814,15 @@
       <c r="M545" s="29" t="s">
         <v>774</v>
       </c>
-      <c r="N545" s="14"/>
-      <c r="O545" s="15"/>
-      <c r="P545" s="14"/>
+      <c r="N545" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O545" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P545" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q545" s="16"/>
     </row>
     <row r="546" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -29800,9 +29856,15 @@
       <c r="M546" s="29" t="s">
         <v>767</v>
       </c>
-      <c r="N546" s="14"/>
-      <c r="O546" s="15"/>
-      <c r="P546" s="14"/>
+      <c r="N546" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O546" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P546" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q546" s="16"/>
     </row>
     <row r="547" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -29826,9 +29888,15 @@
       <c r="M547" s="29" t="s">
         <v>768</v>
       </c>
-      <c r="N547" s="14"/>
-      <c r="O547" s="15"/>
-      <c r="P547" s="14"/>
+      <c r="N547" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O547" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P547" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q547" s="16"/>
     </row>
     <row r="548" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -29852,9 +29920,15 @@
       <c r="M548" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="N548" s="14"/>
-      <c r="O548" s="15"/>
-      <c r="P548" s="14"/>
+      <c r="N548" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O548" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P548" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q548" s="16"/>
     </row>
     <row r="549" spans="1:17" ht="236.25" x14ac:dyDescent="0.4">
@@ -29876,9 +29950,15 @@
       <c r="M549" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="N549" s="14"/>
-      <c r="O549" s="15"/>
-      <c r="P549" s="14"/>
+      <c r="N549" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O549" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P549" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q549" s="16"/>
     </row>
     <row r="550" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
@@ -29900,9 +29980,15 @@
       <c r="M550" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N550" s="14"/>
-      <c r="O550" s="15"/>
-      <c r="P550" s="14"/>
+      <c r="N550" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O550" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P550" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q550" s="16"/>
     </row>
     <row r="551" spans="1:17" ht="393.75" x14ac:dyDescent="0.4">
@@ -29924,9 +30010,15 @@
       <c r="M551" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="N551" s="14"/>
-      <c r="O551" s="15"/>
-      <c r="P551" s="14"/>
+      <c r="N551" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O551" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P551" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q551" s="16"/>
     </row>
     <row r="552" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
@@ -29948,9 +30040,15 @@
       <c r="M552" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="N552" s="14"/>
-      <c r="O552" s="15"/>
-      <c r="P552" s="14"/>
+      <c r="N552" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O552" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P552" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q552" s="16"/>
     </row>
     <row r="553" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
@@ -29972,9 +30070,15 @@
       <c r="M553" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="N553" s="14"/>
-      <c r="O553" s="15"/>
-      <c r="P553" s="14"/>
+      <c r="N553" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O553" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P553" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q553" s="16"/>
     </row>
     <row r="554" spans="1:17" ht="189" x14ac:dyDescent="0.4">
@@ -29996,9 +30100,15 @@
       <c r="M554" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="N554" s="14"/>
-      <c r="O554" s="15"/>
-      <c r="P554" s="14"/>
+      <c r="N554" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O554" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P554" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q554" s="16"/>
     </row>
     <row r="555" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
@@ -30026,9 +30136,15 @@
       <c r="M555" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="N555" s="14"/>
-      <c r="O555" s="15"/>
-      <c r="P555" s="14"/>
+      <c r="N555" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O555" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P555" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q555" s="16"/>
     </row>
     <row r="556" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
@@ -30056,9 +30172,15 @@
       <c r="M556" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="N556" s="14"/>
-      <c r="O556" s="15"/>
-      <c r="P556" s="14"/>
+      <c r="N556" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O556" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P556" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q556" s="16"/>
     </row>
     <row r="557" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
@@ -30086,9 +30208,15 @@
       <c r="M557" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="N557" s="14"/>
-      <c r="O557" s="15"/>
-      <c r="P557" s="14"/>
+      <c r="N557" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O557" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P557" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q557" s="16"/>
     </row>
     <row r="558" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
@@ -30116,9 +30244,15 @@
       <c r="M558" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="N558" s="14"/>
-      <c r="O558" s="15"/>
-      <c r="P558" s="14"/>
+      <c r="N558" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O558" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P558" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q558" s="16"/>
     </row>
     <row r="559" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
@@ -30135,7 +30269,7 @@
       <c r="H559" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="I559" s="83" t="s">
+      <c r="I559" s="69" t="s">
         <v>780</v>
       </c>
       <c r="J559" s="29" t="s">
@@ -30146,9 +30280,15 @@
       <c r="M559" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="N559" s="14"/>
-      <c r="O559" s="15"/>
-      <c r="P559" s="14"/>
+      <c r="N559" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O559" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P559" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q559" s="16" t="s">
         <v>779</v>
       </c>
@@ -30176,9 +30316,15 @@
       <c r="M560" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="N560" s="14"/>
-      <c r="O560" s="15"/>
-      <c r="P560" s="14"/>
+      <c r="N560" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O560" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P560" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q560" s="16"/>
     </row>
     <row r="561" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
@@ -30204,9 +30350,15 @@
       <c r="M561" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="N561" s="14"/>
-      <c r="O561" s="15"/>
-      <c r="P561" s="14"/>
+      <c r="N561" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O561" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P561" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q561" s="16"/>
     </row>
     <row r="562" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
@@ -30232,9 +30384,15 @@
       <c r="M562" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="N562" s="14"/>
-      <c r="O562" s="15"/>
-      <c r="P562" s="14"/>
+      <c r="N562" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O562" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P562" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q562" s="16"/>
     </row>
     <row r="563" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
@@ -30260,12 +30418,18 @@
       <c r="M563" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="N563" s="14"/>
-      <c r="O563" s="15"/>
-      <c r="P563" s="14"/>
+      <c r="N563" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O563" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P563" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q563" s="16"/>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A564" s="60">
         <f t="shared" si="7"/>
         <v>558</v>
@@ -30294,9 +30458,15 @@
       <c r="M564" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="N564" s="14"/>
-      <c r="O564" s="15"/>
-      <c r="P564" s="14"/>
+      <c r="N564" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O564" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P564" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q564" s="16"/>
     </row>
     <row r="565" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -30320,9 +30490,15 @@
       <c r="M565" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="N565" s="14"/>
-      <c r="O565" s="15"/>
-      <c r="P565" s="14"/>
+      <c r="N565" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O565" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P565" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q565" s="16"/>
     </row>
     <row r="566" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -30343,12 +30519,18 @@
       <c r="L566" s="29" t="s">
         <v>757</v>
       </c>
-      <c r="M566" s="83" t="s">
+      <c r="M566" s="69" t="s">
         <v>778</v>
       </c>
-      <c r="N566" s="14"/>
-      <c r="O566" s="15"/>
-      <c r="P566" s="14"/>
+      <c r="N566" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O566" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P566" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q566" s="16" t="s">
         <v>777</v>
       </c>
@@ -30376,9 +30558,15 @@
       <c r="M567" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="N567" s="14"/>
-      <c r="O567" s="15"/>
-      <c r="P567" s="14"/>
+      <c r="N567" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O567" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P567" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q567" s="16" t="s">
         <v>779</v>
       </c>
@@ -30406,9 +30594,15 @@
       <c r="M568" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="N568" s="14"/>
-      <c r="O568" s="15"/>
-      <c r="P568" s="14"/>
+      <c r="N568" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O568" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P568" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q568" s="16"/>
     </row>
     <row r="569" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -30434,9 +30628,15 @@
       <c r="M569" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="N569" s="14"/>
-      <c r="O569" s="15"/>
-      <c r="P569" s="14"/>
+      <c r="N569" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O569" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P569" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q569" s="16"/>
     </row>
     <row r="570" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
@@ -30462,9 +30662,15 @@
       <c r="M570" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="N570" s="14"/>
-      <c r="O570" s="15"/>
-      <c r="P570" s="14"/>
+      <c r="N570" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O570" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P570" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q570" s="16"/>
     </row>
     <row r="571" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
@@ -30490,9 +30696,15 @@
       <c r="M571" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="N571" s="14"/>
-      <c r="O571" s="15"/>
-      <c r="P571" s="14"/>
+      <c r="N571" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O571" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P571" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q571" s="16"/>
     </row>
     <row r="572" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
@@ -30526,9 +30738,15 @@
       <c r="M572" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="N572" s="14"/>
-      <c r="O572" s="15"/>
-      <c r="P572" s="14"/>
+      <c r="N572" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O572" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P572" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q572" s="16"/>
     </row>
     <row r="573" spans="1:17" ht="236.25" x14ac:dyDescent="0.4">
@@ -30556,9 +30774,15 @@
       <c r="M573" s="61" t="s">
         <v>555</v>
       </c>
-      <c r="N573" s="14"/>
-      <c r="O573" s="15"/>
-      <c r="P573" s="14"/>
+      <c r="N573" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O573" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P573" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q573" s="16"/>
     </row>
     <row r="574" spans="1:17" ht="204.75" x14ac:dyDescent="0.4">
@@ -30580,9 +30804,15 @@
       <c r="M574" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="N574" s="14"/>
-      <c r="O574" s="15"/>
-      <c r="P574" s="14"/>
+      <c r="N574" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="O574" s="15">
+        <v>45623</v>
+      </c>
+      <c r="P574" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="Q574" s="16"/>
     </row>
     <row r="575" spans="1:17" x14ac:dyDescent="0.4">
@@ -31657,26 +31887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -31899,26 +32109,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1F48B3-3FBC-4CF2-8175-CC65A0B615B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B1360EE-7F74-42D9-89D9-7D2FD53C41FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFD7809-C4C3-417D-8A4E-DB0870ACF184}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31935,4 +32146,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B1360EE-7F74-42D9-89D9-7D2FD53C41FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1F48B3-3FBC-4CF2-8175-CC65A0B615B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面_rev1.1（作成中）.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面_rev1.1（作成中）.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6CBC79-636A-44B2-9229-A3E86DED56BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A5764A-4C9C-4919-A53B-AEC2ACD03BCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="502" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="790">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -5060,41 +5060,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>複数図番と追加した作成日条件のOR検索した最新追番の図面が表示される
-図番の昇順に表示される</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ズバン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>サクセイビ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>オイバン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>複数図番と追加した図面サイズ条件のAND検索した全リビジョンの図面が表示される
 図番の昇順に表示される</t>
     <rPh sb="0" eb="2">
@@ -5123,41 +5088,6 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>複数図番と追加した図面サイズ条件のAND検索した全リビジョンの図面が表示される
-図番の降順に表示される</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ズバン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ズバン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウジュン</t>
     </rPh>
     <rPh sb="46" eb="48">
       <t>ヒョウジ</t>
@@ -13554,6 +13484,240 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>複数図番と追加した作成日条件のOR検索した最新追番の図面が表示される
+図番の昇順に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>複数図番と追加した図面サイズ条件のAND検索した全リビジョンの図面が表示される
+図番の</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>降順</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>昇順</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に表示される</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様修正</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">検索結果リストに表示され、図番へのハイパーリンクが付いている。
+図面のサムネイルイメージが表示され、イメージにもハイパーリンクが付いている。
+</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PDF形式で図面がダウンロードされる
+PDFには印刷権限が付与されている
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>200dpiに間引きされたTIFF形式で図面がダウンロードされる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+右下の図枠の外に縦方向に四角い枠で囲まれたバナーが合成されている
+文字列は、「JTEKT CORP. YY/MM/DD [氏名] [図番]」</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PDF形式で図面がダウンロードされる
+PDFには印刷権限が付与されている
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">200dpiに間引きされたTIFF形式で図面がダウンロードされる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>右下の図枠の外に縦方向に四角い枠で囲まれたバナーが合成されている
+文字列は、「JTEKT CORP. YY/MM/DD [氏名] [図番]」</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様修正</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>エイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -13563,7 +13727,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13723,6 +13887,14 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -14117,6 +14289,9 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14158,9 +14333,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14450,6 +14622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66BA532-D6DE-4993-AFBD-37467A0BBBD0}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14470,25 +14643,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>685</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
@@ -14496,16 +14669,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C2" s="38">
         <v>45561</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -14515,16 +14688,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C3" s="43">
         <v>45618</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="47"/>
@@ -14639,10 +14812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H539" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B540" sqref="B540"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -14663,20 +14837,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="20" t="s">
         <v>17</v>
       </c>
@@ -14684,14 +14858,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
@@ -14704,28 +14878,28 @@
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -14733,14 +14907,14 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -14760,7 +14934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A7" s="60">
         <f>ROW()-6</f>
         <v>1</v>
@@ -14775,7 +14949,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -14785,11 +14959,17 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
+        <v>691</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O7" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -14829,7 +15009,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -14917,7 +15097,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
@@ -14934,7 +15114,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -14943,7 +15123,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="15"/>
@@ -15107,7 +15287,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="15"/>
@@ -15124,7 +15304,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -15297,10 +15477,10 @@
         <v>122</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -15309,11 +15489,17 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="29" t="s">
-        <v>679</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="14"/>
+        <v>677</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O26" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
@@ -15335,11 +15521,17 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
       <c r="M27" s="29" t="s">
-        <v>658</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="14"/>
+        <v>656</v>
+      </c>
+      <c r="N27" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O27" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -15389,11 +15581,17 @@
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
       <c r="M29" s="29" t="s">
-        <v>659</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="14"/>
+        <v>657</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O29" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -15405,7 +15603,7 @@
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -15417,9 +15615,15 @@
       <c r="M30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="14"/>
+      <c r="N30" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O30" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -15469,11 +15673,17 @@
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
       <c r="M32" s="29" t="s">
-        <v>661</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="14"/>
+        <v>659</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O32" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -15527,9 +15737,15 @@
       <c r="M34" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="14"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="14"/>
+      <c r="N34" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O34" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -15550,11 +15766,17 @@
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
       <c r="M35" s="29" t="s">
-        <v>662</v>
-      </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="14"/>
+        <v>660</v>
+      </c>
+      <c r="N35" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O35" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
@@ -15604,11 +15826,17 @@
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
       <c r="M37" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="14"/>
+        <v>672</v>
+      </c>
+      <c r="N37" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O37" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" ht="63" x14ac:dyDescent="0.4">
@@ -15630,11 +15858,17 @@
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
       <c r="M38" s="29" t="s">
-        <v>675</v>
-      </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="14"/>
+        <v>673</v>
+      </c>
+      <c r="N38" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O38" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
@@ -15758,10 +15992,10 @@
         <v>126</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
@@ -15770,11 +16004,17 @@
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
       <c r="M43" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="14"/>
+        <v>678</v>
+      </c>
+      <c r="N43" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O43" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q43" s="16"/>
     </row>
     <row r="44" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
@@ -15796,11 +16036,17 @@
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
       <c r="M44" s="29" t="s">
-        <v>664</v>
-      </c>
-      <c r="N44" s="14"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="14"/>
+        <v>662</v>
+      </c>
+      <c r="N44" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O44" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q44" s="16"/>
     </row>
     <row r="45" spans="1:17" ht="126" x14ac:dyDescent="0.4">
@@ -15824,11 +16070,17 @@
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="14"/>
+        <v>674</v>
+      </c>
+      <c r="N45" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O45" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -15850,11 +16102,17 @@
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29" t="s">
-        <v>665</v>
-      </c>
-      <c r="N46" s="14"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="14"/>
+        <v>663</v>
+      </c>
+      <c r="N46" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O46" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q46" s="16"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.4">
@@ -16040,7 +16298,7 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="15"/>
@@ -16056,7 +16314,7 @@
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="11"/>
@@ -16066,7 +16324,7 @@
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N54" s="14"/>
       <c r="O54" s="15"/>
@@ -16082,7 +16340,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="11"/>
@@ -16092,7 +16350,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N55" s="14"/>
       <c r="O55" s="15"/>
@@ -16332,7 +16590,7 @@
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="29" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
@@ -16342,9 +16600,15 @@
       <c r="M64" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="N64" s="14"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="14"/>
+      <c r="N64" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O64" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q64" s="16"/>
     </row>
     <row r="65" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -16411,7 +16675,7 @@
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>209</v>
@@ -22505,7 +22769,7 @@
       <c r="P280" s="14"/>
       <c r="Q280" s="16"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A281" s="60">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -22513,16 +22777,16 @@
       <c r="B281" s="28"/>
       <c r="C281" s="28"/>
       <c r="D281" s="28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E281" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F281" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G281" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H281" s="30"/>
       <c r="I281" s="28"/>
@@ -22530,11 +22794,17 @@
       <c r="K281" s="28"/>
       <c r="L281" s="28"/>
       <c r="M281" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="N281" s="14"/>
-      <c r="O281" s="15"/>
-      <c r="P281" s="14"/>
+        <v>666</v>
+      </c>
+      <c r="N281" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O281" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P281" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q281" s="16"/>
     </row>
     <row r="282" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -22547,10 +22817,10 @@
       <c r="D282" s="28"/>
       <c r="E282" s="29"/>
       <c r="F282" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G282" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H282" s="30"/>
       <c r="I282" s="28"/>
@@ -22558,14 +22828,20 @@
       <c r="K282" s="28"/>
       <c r="L282" s="28"/>
       <c r="M282" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="N282" s="14"/>
-      <c r="O282" s="15"/>
-      <c r="P282" s="14"/>
+        <v>667</v>
+      </c>
+      <c r="N282" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O282" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P282" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q282" s="16"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A283" s="60">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -22573,16 +22849,16 @@
       <c r="B283" s="28"/>
       <c r="C283" s="28"/>
       <c r="D283" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="E283" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="F283" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="G283" s="30" t="s">
         <v>694</v>
-      </c>
-      <c r="E283" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="F283" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="G283" s="30" t="s">
-        <v>696</v>
       </c>
       <c r="H283" s="30"/>
       <c r="I283" s="28"/>
@@ -22590,11 +22866,17 @@
       <c r="K283" s="28"/>
       <c r="L283" s="28"/>
       <c r="M283" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="N283" s="14"/>
-      <c r="O283" s="15"/>
-      <c r="P283" s="14"/>
+        <v>695</v>
+      </c>
+      <c r="N283" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O283" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P283" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q283" s="16"/>
     </row>
     <row r="284" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -22607,10 +22889,10 @@
       <c r="D284" s="28"/>
       <c r="E284" s="29"/>
       <c r="F284" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G284" s="30" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H284" s="30"/>
       <c r="I284" s="28"/>
@@ -22618,11 +22900,17 @@
       <c r="K284" s="28"/>
       <c r="L284" s="28"/>
       <c r="M284" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="N284" s="14"/>
-      <c r="O284" s="15"/>
-      <c r="P284" s="14"/>
+        <v>696</v>
+      </c>
+      <c r="N284" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O284" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P284" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q284" s="16"/>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.4">
@@ -23700,7 +23988,7 @@
       <c r="C324" s="28"/>
       <c r="D324" s="28"/>
       <c r="E324" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F324" s="29" t="s">
         <v>325</v>
@@ -23720,9 +24008,15 @@
       <c r="M324" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="N324" s="14"/>
-      <c r="O324" s="15"/>
-      <c r="P324" s="14"/>
+      <c r="N324" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O324" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P324" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q324" s="16"/>
     </row>
     <row r="325" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23746,9 +24040,15 @@
       <c r="M325" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="N325" s="14"/>
-      <c r="O325" s="15"/>
-      <c r="P325" s="14"/>
+      <c r="N325" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O325" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P325" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q325" s="16"/>
     </row>
     <row r="326" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23772,9 +24072,15 @@
       <c r="M326" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="N326" s="14"/>
-      <c r="O326" s="15"/>
-      <c r="P326" s="14"/>
+      <c r="N326" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O326" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P326" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q326" s="16"/>
     </row>
     <row r="327" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23800,9 +24106,15 @@
       <c r="M327" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="N327" s="14"/>
-      <c r="O327" s="15"/>
-      <c r="P327" s="14"/>
+      <c r="N327" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O327" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P327" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q327" s="16"/>
     </row>
     <row r="328" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23830,9 +24142,15 @@
       <c r="M328" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="N328" s="14"/>
-      <c r="O328" s="15"/>
-      <c r="P328" s="14"/>
+      <c r="N328" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O328" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P328" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q328" s="16"/>
     </row>
     <row r="329" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23858,9 +24176,15 @@
       <c r="M329" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="N329" s="14"/>
-      <c r="O329" s="15"/>
-      <c r="P329" s="14"/>
+      <c r="N329" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O329" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P329" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q329" s="16"/>
     </row>
     <row r="330" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23890,9 +24214,15 @@
       <c r="M330" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="N330" s="14"/>
-      <c r="O330" s="15"/>
-      <c r="P330" s="14"/>
+      <c r="N330" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O330" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P330" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q330" s="16"/>
     </row>
     <row r="331" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23916,9 +24246,15 @@
       <c r="M331" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="N331" s="14"/>
-      <c r="O331" s="15"/>
-      <c r="P331" s="14"/>
+      <c r="N331" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O331" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P331" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q331" s="16"/>
     </row>
     <row r="332" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23942,9 +24278,15 @@
       <c r="M332" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="N332" s="14"/>
-      <c r="O332" s="15"/>
-      <c r="P332" s="14"/>
+      <c r="N332" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O332" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P332" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q332" s="16"/>
     </row>
     <row r="333" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -23970,9 +24312,15 @@
       <c r="M333" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="N333" s="14"/>
-      <c r="O333" s="15"/>
-      <c r="P333" s="14"/>
+      <c r="N333" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O333" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P333" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q333" s="16"/>
     </row>
     <row r="334" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -24000,9 +24348,15 @@
       <c r="M334" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="N334" s="14"/>
-      <c r="O334" s="15"/>
-      <c r="P334" s="14"/>
+      <c r="N334" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O334" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P334" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q334" s="16"/>
     </row>
     <row r="335" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -24026,11 +24380,17 @@
       <c r="K335" s="28"/>
       <c r="L335" s="28"/>
       <c r="M335" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="N335" s="14"/>
-      <c r="O335" s="15"/>
-      <c r="P335" s="14"/>
+        <v>781</v>
+      </c>
+      <c r="N335" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O335" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P335" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q335" s="16"/>
     </row>
     <row r="336" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -24058,11 +24418,17 @@
       <c r="K336" s="28"/>
       <c r="L336" s="28"/>
       <c r="M336" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="N336" s="14"/>
-      <c r="O336" s="15"/>
-      <c r="P336" s="14"/>
+        <v>351</v>
+      </c>
+      <c r="N336" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O336" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P336" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q336" s="16"/>
     </row>
     <row r="337" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -24084,11 +24450,17 @@
       <c r="K337" s="28"/>
       <c r="L337" s="28"/>
       <c r="M337" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="N337" s="14"/>
-      <c r="O337" s="15"/>
-      <c r="P337" s="14"/>
+        <v>351</v>
+      </c>
+      <c r="N337" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O337" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P337" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q337" s="16"/>
     </row>
     <row r="338" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -24110,12 +24482,20 @@
       <c r="K338" s="28"/>
       <c r="L338" s="28"/>
       <c r="M338" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="N338" s="14"/>
-      <c r="O338" s="15"/>
-      <c r="P338" s="14"/>
-      <c r="Q338" s="16"/>
+        <v>782</v>
+      </c>
+      <c r="N338" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O338" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P338" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q338" s="16" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="339" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A339" s="60">
@@ -24138,11 +24518,17 @@
       <c r="K339" s="28"/>
       <c r="L339" s="28"/>
       <c r="M339" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="N339" s="14"/>
-      <c r="O339" s="15"/>
-      <c r="P339" s="14"/>
+        <v>352</v>
+      </c>
+      <c r="N339" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O339" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P339" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q339" s="16"/>
     </row>
     <row r="340" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -24168,11 +24554,17 @@
       <c r="K340" s="28"/>
       <c r="L340" s="28"/>
       <c r="M340" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="N340" s="14"/>
-      <c r="O340" s="15"/>
-      <c r="P340" s="14"/>
+        <v>353</v>
+      </c>
+      <c r="N340" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O340" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P340" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q340" s="16"/>
     </row>
     <row r="341" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -24196,11 +24588,17 @@
       <c r="K341" s="28"/>
       <c r="L341" s="28"/>
       <c r="M341" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="N341" s="14"/>
-      <c r="O341" s="15"/>
-      <c r="P341" s="14"/>
+        <v>354</v>
+      </c>
+      <c r="N341" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O341" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P341" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q341" s="16"/>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.4">
@@ -24211,10 +24609,10 @@
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
       <c r="D342" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F342" s="11"/>
       <c r="G342" s="18"/>
@@ -24224,7 +24622,7 @@
       <c r="K342" s="12"/>
       <c r="L342" s="12"/>
       <c r="M342" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N342" s="14"/>
       <c r="O342" s="15"/>
@@ -24240,7 +24638,7 @@
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
       <c r="E343" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="18"/>
@@ -24250,7 +24648,7 @@
       <c r="K343" s="12"/>
       <c r="L343" s="12"/>
       <c r="M343" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N343" s="14"/>
       <c r="O343" s="15"/>
@@ -24266,7 +24664,7 @@
       <c r="C344" s="12"/>
       <c r="D344" s="12"/>
       <c r="E344" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="18"/>
@@ -24276,7 +24674,7 @@
       <c r="K344" s="12"/>
       <c r="L344" s="12"/>
       <c r="M344" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N344" s="14"/>
       <c r="O344" s="15"/>
@@ -24292,7 +24690,7 @@
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
       <c r="E345" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="18"/>
@@ -24302,7 +24700,7 @@
       <c r="K345" s="12"/>
       <c r="L345" s="12"/>
       <c r="M345" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N345" s="14"/>
       <c r="O345" s="15"/>
@@ -24318,7 +24716,7 @@
       <c r="C346" s="12"/>
       <c r="D346" s="12"/>
       <c r="E346" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="18"/>
@@ -24328,7 +24726,7 @@
       <c r="K346" s="12"/>
       <c r="L346" s="12"/>
       <c r="M346" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N346" s="14"/>
       <c r="O346" s="15"/>
@@ -24344,7 +24742,7 @@
       <c r="C347" s="12"/>
       <c r="D347" s="12"/>
       <c r="E347" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="18"/>
@@ -24354,7 +24752,7 @@
       <c r="K347" s="12"/>
       <c r="L347" s="12"/>
       <c r="M347" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N347" s="14"/>
       <c r="O347" s="15"/>
@@ -24370,7 +24768,7 @@
       <c r="C348" s="12"/>
       <c r="D348" s="12"/>
       <c r="E348" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="18"/>
@@ -24380,7 +24778,7 @@
       <c r="K348" s="12"/>
       <c r="L348" s="12"/>
       <c r="M348" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N348" s="14"/>
       <c r="O348" s="15"/>
@@ -24396,7 +24794,7 @@
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
       <c r="E349" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F349" s="11"/>
       <c r="G349" s="18"/>
@@ -24406,7 +24804,7 @@
       <c r="K349" s="12"/>
       <c r="L349" s="12"/>
       <c r="M349" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N349" s="14"/>
       <c r="O349" s="15"/>
@@ -24422,7 +24820,7 @@
       <c r="C350" s="12"/>
       <c r="D350" s="12"/>
       <c r="E350" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="18"/>
@@ -24432,7 +24830,7 @@
       <c r="K350" s="12"/>
       <c r="L350" s="12"/>
       <c r="M350" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N350" s="14"/>
       <c r="O350" s="15"/>
@@ -24458,7 +24856,7 @@
       <c r="K351" s="12"/>
       <c r="L351" s="12"/>
       <c r="M351" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N351" s="14"/>
       <c r="O351" s="15"/>
@@ -24474,7 +24872,7 @@
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
       <c r="E352" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="18"/>
@@ -24484,7 +24882,7 @@
       <c r="K352" s="12"/>
       <c r="L352" s="12"/>
       <c r="M352" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N352" s="14"/>
       <c r="O352" s="15"/>
@@ -24500,7 +24898,7 @@
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
       <c r="E353" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="18"/>
@@ -24510,7 +24908,7 @@
       <c r="K353" s="12"/>
       <c r="L353" s="12"/>
       <c r="M353" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N353" s="14"/>
       <c r="O353" s="15"/>
@@ -24526,7 +24924,7 @@
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
       <c r="E354" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="18"/>
@@ -24536,7 +24934,7 @@
       <c r="K354" s="12"/>
       <c r="L354" s="12"/>
       <c r="M354" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N354" s="14"/>
       <c r="O354" s="15"/>
@@ -24552,7 +24950,7 @@
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
       <c r="E355" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="18"/>
@@ -24562,7 +24960,7 @@
       <c r="K355" s="12"/>
       <c r="L355" s="12"/>
       <c r="M355" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N355" s="14"/>
       <c r="O355" s="15"/>
@@ -24578,7 +24976,7 @@
       <c r="C356" s="12"/>
       <c r="D356" s="12"/>
       <c r="E356" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F356" s="11"/>
       <c r="G356" s="18"/>
@@ -24588,7 +24986,7 @@
       <c r="K356" s="12"/>
       <c r="L356" s="12"/>
       <c r="M356" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N356" s="14"/>
       <c r="O356" s="15"/>
@@ -24604,7 +25002,7 @@
       <c r="C357" s="12"/>
       <c r="D357" s="12"/>
       <c r="E357" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F357" s="11"/>
       <c r="G357" s="18"/>
@@ -24614,7 +25012,7 @@
       <c r="K357" s="12"/>
       <c r="L357" s="12"/>
       <c r="M357" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N357" s="14"/>
       <c r="O357" s="15"/>
@@ -24630,7 +25028,7 @@
       <c r="C358" s="12"/>
       <c r="D358" s="12"/>
       <c r="E358" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F358" s="11"/>
       <c r="G358" s="18"/>
@@ -24640,7 +25038,7 @@
       <c r="K358" s="12"/>
       <c r="L358" s="12"/>
       <c r="M358" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N358" s="14"/>
       <c r="O358" s="15"/>
@@ -24656,7 +25054,7 @@
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
       <c r="E359" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F359" s="11"/>
       <c r="G359" s="18"/>
@@ -24666,7 +25064,7 @@
       <c r="K359" s="12"/>
       <c r="L359" s="12"/>
       <c r="M359" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N359" s="14"/>
       <c r="O359" s="15"/>
@@ -24682,7 +25080,7 @@
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
       <c r="E360" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F360" s="11"/>
       <c r="G360" s="18"/>
@@ -24692,7 +25090,7 @@
       <c r="K360" s="12"/>
       <c r="L360" s="12"/>
       <c r="M360" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N360" s="14"/>
       <c r="O360" s="15"/>
@@ -24708,7 +25106,7 @@
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
       <c r="E361" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F361" s="11"/>
       <c r="G361" s="18"/>
@@ -24718,7 +25116,7 @@
       <c r="K361" s="12"/>
       <c r="L361" s="12"/>
       <c r="M361" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N361" s="14"/>
       <c r="O361" s="15"/>
@@ -24734,7 +25132,7 @@
       <c r="C362" s="12"/>
       <c r="D362" s="12"/>
       <c r="E362" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F362" s="11"/>
       <c r="G362" s="18"/>
@@ -24744,7 +25142,7 @@
       <c r="K362" s="12"/>
       <c r="L362" s="12"/>
       <c r="M362" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N362" s="14"/>
       <c r="O362" s="15"/>
@@ -24760,7 +25158,7 @@
       <c r="C363" s="12"/>
       <c r="D363" s="12"/>
       <c r="E363" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F363" s="11"/>
       <c r="G363" s="18"/>
@@ -24770,7 +25168,7 @@
       <c r="K363" s="12"/>
       <c r="L363" s="12"/>
       <c r="M363" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N363" s="14"/>
       <c r="O363" s="15"/>
@@ -24786,7 +25184,7 @@
       <c r="C364" s="12"/>
       <c r="D364" s="12"/>
       <c r="E364" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F364" s="11"/>
       <c r="G364" s="18"/>
@@ -24796,7 +25194,7 @@
       <c r="K364" s="12"/>
       <c r="L364" s="12"/>
       <c r="M364" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N364" s="14"/>
       <c r="O364" s="15"/>
@@ -24812,7 +25210,7 @@
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
       <c r="E365" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F365" s="11"/>
       <c r="G365" s="18"/>
@@ -24822,7 +25220,7 @@
       <c r="K365" s="12"/>
       <c r="L365" s="12"/>
       <c r="M365" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N365" s="14"/>
       <c r="O365" s="15"/>
@@ -24838,7 +25236,7 @@
       <c r="C366" s="12"/>
       <c r="D366" s="12"/>
       <c r="E366" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F366" s="11"/>
       <c r="G366" s="18"/>
@@ -24848,7 +25246,7 @@
       <c r="K366" s="12"/>
       <c r="L366" s="12"/>
       <c r="M366" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N366" s="14"/>
       <c r="O366" s="15"/>
@@ -24864,7 +25262,7 @@
       <c r="C367" s="12"/>
       <c r="D367" s="12"/>
       <c r="E367" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F367" s="11"/>
       <c r="G367" s="18"/>
@@ -24874,7 +25272,7 @@
       <c r="K367" s="12"/>
       <c r="L367" s="12"/>
       <c r="M367" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N367" s="14"/>
       <c r="O367" s="15"/>
@@ -24890,7 +25288,7 @@
       <c r="C368" s="12"/>
       <c r="D368" s="12"/>
       <c r="E368" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F368" s="11"/>
       <c r="G368" s="18"/>
@@ -24900,7 +25298,7 @@
       <c r="K368" s="12"/>
       <c r="L368" s="12"/>
       <c r="M368" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N368" s="14"/>
       <c r="O368" s="15"/>
@@ -24916,7 +25314,7 @@
       <c r="C369" s="12"/>
       <c r="D369" s="12"/>
       <c r="E369" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F369" s="11"/>
       <c r="G369" s="18"/>
@@ -24926,7 +25324,7 @@
       <c r="K369" s="12"/>
       <c r="L369" s="12"/>
       <c r="M369" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N369" s="14"/>
       <c r="O369" s="15"/>
@@ -24942,7 +25340,7 @@
       <c r="C370" s="12"/>
       <c r="D370" s="12"/>
       <c r="E370" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F370" s="11"/>
       <c r="G370" s="18"/>
@@ -24952,7 +25350,7 @@
       <c r="K370" s="12"/>
       <c r="L370" s="12"/>
       <c r="M370" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N370" s="14"/>
       <c r="O370" s="15"/>
@@ -24968,7 +25366,7 @@
       <c r="C371" s="12"/>
       <c r="D371" s="12"/>
       <c r="E371" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F371" s="11"/>
       <c r="G371" s="18"/>
@@ -24978,7 +25376,7 @@
       <c r="K371" s="12"/>
       <c r="L371" s="12"/>
       <c r="M371" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N371" s="14"/>
       <c r="O371" s="15"/>
@@ -24994,7 +25392,7 @@
       <c r="C372" s="12"/>
       <c r="D372" s="12"/>
       <c r="E372" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F372" s="11"/>
       <c r="G372" s="18"/>
@@ -25004,7 +25402,7 @@
       <c r="K372" s="12"/>
       <c r="L372" s="12"/>
       <c r="M372" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N372" s="14"/>
       <c r="O372" s="15"/>
@@ -25020,7 +25418,7 @@
       <c r="C373" s="12"/>
       <c r="D373" s="12"/>
       <c r="E373" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F373" s="11"/>
       <c r="G373" s="18"/>
@@ -25030,7 +25428,7 @@
       <c r="K373" s="12"/>
       <c r="L373" s="12"/>
       <c r="M373" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N373" s="14"/>
       <c r="O373" s="15"/>
@@ -25046,7 +25444,7 @@
       <c r="C374" s="12"/>
       <c r="D374" s="12"/>
       <c r="E374" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F374" s="11"/>
       <c r="G374" s="18"/>
@@ -25056,7 +25454,7 @@
       <c r="K374" s="12"/>
       <c r="L374" s="12"/>
       <c r="M374" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N374" s="14"/>
       <c r="O374" s="15"/>
@@ -25072,7 +25470,7 @@
       <c r="C375" s="12"/>
       <c r="D375" s="12"/>
       <c r="E375" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F375" s="11"/>
       <c r="G375" s="18"/>
@@ -25082,7 +25480,7 @@
       <c r="K375" s="12"/>
       <c r="L375" s="12"/>
       <c r="M375" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N375" s="14"/>
       <c r="O375" s="15"/>
@@ -25098,7 +25496,7 @@
       <c r="C376" s="12"/>
       <c r="D376" s="12"/>
       <c r="E376" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F376" s="11"/>
       <c r="G376" s="18"/>
@@ -25108,14 +25506,14 @@
       <c r="K376" s="12"/>
       <c r="L376" s="12"/>
       <c r="M376" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N376" s="14"/>
       <c r="O376" s="15"/>
       <c r="P376" s="14"/>
       <c r="Q376" s="16"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A377" s="60">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -25123,16 +25521,16 @@
       <c r="B377" s="28"/>
       <c r="C377" s="28"/>
       <c r="D377" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E377" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F377" s="29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G377" s="30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H377" s="30"/>
       <c r="I377" s="28"/>
@@ -25140,14 +25538,20 @@
       <c r="K377" s="28"/>
       <c r="L377" s="28"/>
       <c r="M377" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="N377" s="14"/>
-      <c r="O377" s="15"/>
-      <c r="P377" s="14"/>
+        <v>404</v>
+      </c>
+      <c r="N377" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O377" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P377" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q377" s="16"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A378" s="60">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -25158,7 +25562,7 @@
       <c r="E378" s="29"/>
       <c r="F378" s="29"/>
       <c r="G378" s="30" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H378" s="30"/>
       <c r="I378" s="28"/>
@@ -25166,11 +25570,17 @@
       <c r="K378" s="28"/>
       <c r="L378" s="28"/>
       <c r="M378" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="N378" s="14"/>
-      <c r="O378" s="15"/>
-      <c r="P378" s="14"/>
+        <v>670</v>
+      </c>
+      <c r="N378" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O378" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P378" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q378" s="16"/>
     </row>
     <row r="379" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -25183,10 +25593,10 @@
       <c r="D379" s="28"/>
       <c r="E379" s="29"/>
       <c r="F379" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="G379" s="30" t="s">
         <v>403</v>
-      </c>
-      <c r="G379" s="30" t="s">
-        <v>405</v>
       </c>
       <c r="H379" s="30"/>
       <c r="I379" s="28"/>
@@ -25194,11 +25604,17 @@
       <c r="K379" s="28"/>
       <c r="L379" s="28"/>
       <c r="M379" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="N379" s="14"/>
-      <c r="O379" s="15"/>
-      <c r="P379" s="14"/>
+        <v>405</v>
+      </c>
+      <c r="N379" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O379" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P379" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q379" s="16"/>
     </row>
     <row r="380" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -25212,7 +25628,7 @@
       <c r="E380" s="29"/>
       <c r="F380" s="29"/>
       <c r="G380" s="30" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H380" s="30"/>
       <c r="I380" s="28"/>
@@ -25220,11 +25636,17 @@
       <c r="K380" s="28"/>
       <c r="L380" s="28"/>
       <c r="M380" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="N380" s="14"/>
-      <c r="O380" s="15"/>
-      <c r="P380" s="14"/>
+        <v>671</v>
+      </c>
+      <c r="N380" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O380" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P380" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q380" s="16"/>
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.4">
@@ -25235,10 +25657,10 @@
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
       <c r="D381" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E381" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F381" s="11"/>
       <c r="G381" s="18"/>
@@ -25248,7 +25670,7 @@
       <c r="K381" s="12"/>
       <c r="L381" s="12"/>
       <c r="M381" s="26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N381" s="14"/>
       <c r="O381" s="15"/>
@@ -25263,26 +25685,26 @@
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
       <c r="D382" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E382" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F382" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G382" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="H382" s="18" t="s">
         <v>408</v>
-      </c>
-      <c r="F382" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="G382" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="H382" s="18" t="s">
-        <v>410</v>
       </c>
       <c r="I382" s="12"/>
       <c r="J382" s="12"/>
       <c r="K382" s="12"/>
       <c r="L382" s="12"/>
       <c r="M382" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N382" s="14"/>
       <c r="O382" s="15"/>
@@ -25301,14 +25723,14 @@
       <c r="F383" s="11"/>
       <c r="G383" s="18"/>
       <c r="H383" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I383" s="12"/>
       <c r="J383" s="12"/>
       <c r="K383" s="12"/>
       <c r="L383" s="12"/>
       <c r="M383" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N383" s="14"/>
       <c r="O383" s="15"/>
@@ -25327,14 +25749,14 @@
       <c r="F384" s="11"/>
       <c r="G384" s="18"/>
       <c r="H384" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I384" s="12"/>
       <c r="J384" s="12"/>
       <c r="K384" s="12"/>
       <c r="L384" s="12"/>
       <c r="M384" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N384" s="14"/>
       <c r="O384" s="15"/>
@@ -25354,13 +25776,13 @@
       <c r="G385" s="18"/>
       <c r="H385" s="18"/>
       <c r="I385" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J385" s="12"/>
       <c r="K385" s="12"/>
       <c r="L385" s="12"/>
       <c r="M385" s="13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N385" s="14"/>
       <c r="O385" s="15"/>
@@ -25379,14 +25801,14 @@
       <c r="F386" s="11"/>
       <c r="G386" s="18"/>
       <c r="H386" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I386" s="12"/>
       <c r="J386" s="12"/>
       <c r="K386" s="12"/>
       <c r="L386" s="12"/>
       <c r="M386" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N386" s="14"/>
       <c r="O386" s="15"/>
@@ -25406,17 +25828,17 @@
       <c r="G387" s="18"/>
       <c r="H387" s="18"/>
       <c r="I387" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J387" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K387" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L387" s="12"/>
       <c r="M387" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N387" s="14"/>
       <c r="O387" s="15"/>
@@ -25437,14 +25859,14 @@
       <c r="H388" s="18"/>
       <c r="I388" s="12"/>
       <c r="J388" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K388" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L388" s="12"/>
       <c r="M388" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N388" s="14"/>
       <c r="O388" s="15"/>
@@ -25465,14 +25887,14 @@
       <c r="H389" s="18"/>
       <c r="I389" s="12"/>
       <c r="J389" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K389" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L389" s="12"/>
       <c r="M389" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N389" s="14"/>
       <c r="O389" s="15"/>
@@ -25492,17 +25914,17 @@
       <c r="G390" s="18"/>
       <c r="H390" s="18"/>
       <c r="I390" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J390" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K390" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L390" s="12"/>
       <c r="M390" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N390" s="14"/>
       <c r="O390" s="15"/>
@@ -25521,14 +25943,14 @@
       <c r="F391" s="11"/>
       <c r="G391" s="18"/>
       <c r="H391" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I391" s="12"/>
       <c r="J391" s="12"/>
       <c r="K391" s="12"/>
       <c r="L391" s="12"/>
       <c r="M391" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N391" s="14"/>
       <c r="O391" s="15"/>
@@ -25548,17 +25970,17 @@
       <c r="G392" s="18"/>
       <c r="H392" s="18"/>
       <c r="I392" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J392" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K392" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L392" s="12"/>
       <c r="M392" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N392" s="14"/>
       <c r="O392" s="15"/>
@@ -25578,17 +26000,17 @@
       <c r="G393" s="18"/>
       <c r="H393" s="18"/>
       <c r="I393" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J393" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K393" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L393" s="12"/>
       <c r="M393" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N393" s="14"/>
       <c r="O393" s="15"/>
@@ -25604,23 +26026,23 @@
       <c r="C394" s="12"/>
       <c r="D394" s="12"/>
       <c r="E394" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F394" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G394" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H394" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I394" s="12"/>
       <c r="J394" s="12"/>
       <c r="K394" s="12"/>
       <c r="L394" s="12"/>
       <c r="M394" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N394" s="14"/>
       <c r="O394" s="15"/>
@@ -25639,14 +26061,14 @@
       <c r="F395" s="11"/>
       <c r="G395" s="18"/>
       <c r="H395" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I395" s="12"/>
       <c r="J395" s="12"/>
       <c r="K395" s="12"/>
       <c r="L395" s="12"/>
       <c r="M395" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N395" s="14"/>
       <c r="O395" s="15"/>
@@ -25665,14 +26087,14 @@
       <c r="F396" s="11"/>
       <c r="G396" s="18"/>
       <c r="H396" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I396" s="12"/>
       <c r="J396" s="12"/>
       <c r="K396" s="12"/>
       <c r="L396" s="12"/>
       <c r="M396" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N396" s="14"/>
       <c r="O396" s="15"/>
@@ -25681,7 +26103,7 @@
     </row>
     <row r="397" spans="1:18" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A397" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -25691,22 +26113,22 @@
       <c r="G397" s="18"/>
       <c r="H397" s="18"/>
       <c r="I397" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J397" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K397" s="12"/>
       <c r="L397" s="12"/>
       <c r="M397" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N397" s="14"/>
       <c r="O397" s="15"/>
       <c r="P397" s="14"/>
       <c r="Q397" s="16"/>
       <c r="R397" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="398" spans="1:18" ht="47.25" x14ac:dyDescent="0.4">
@@ -25722,22 +26144,22 @@
       <c r="G398" s="18"/>
       <c r="H398" s="18"/>
       <c r="I398" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J398" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K398" s="12"/>
       <c r="L398" s="12"/>
       <c r="M398" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N398" s="14"/>
       <c r="O398" s="15"/>
       <c r="P398" s="14"/>
       <c r="Q398" s="16"/>
       <c r="R398" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="399" spans="1:18" ht="31.5" x14ac:dyDescent="0.4">
@@ -25752,14 +26174,14 @@
       <c r="F399" s="11"/>
       <c r="G399" s="18"/>
       <c r="H399" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I399" s="12"/>
       <c r="J399" s="12"/>
       <c r="K399" s="12"/>
       <c r="L399" s="12"/>
       <c r="M399" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N399" s="14"/>
       <c r="O399" s="15"/>
@@ -25779,22 +26201,22 @@
       <c r="G400" s="18"/>
       <c r="H400" s="18"/>
       <c r="I400" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J400" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K400" s="12"/>
       <c r="L400" s="12"/>
       <c r="M400" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N400" s="14"/>
       <c r="O400" s="15"/>
       <c r="P400" s="14"/>
       <c r="Q400" s="16"/>
       <c r="R400" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="401" spans="1:18" ht="63" x14ac:dyDescent="0.4">
@@ -25810,22 +26232,22 @@
       <c r="G401" s="18"/>
       <c r="H401" s="18"/>
       <c r="I401" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J401" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K401" s="12"/>
       <c r="L401" s="12"/>
       <c r="M401" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N401" s="14"/>
       <c r="O401" s="15"/>
       <c r="P401" s="14"/>
       <c r="Q401" s="16"/>
       <c r="R401" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="402" spans="1:18" ht="31.5" x14ac:dyDescent="0.4">
@@ -25840,14 +26262,14 @@
       <c r="F402" s="11"/>
       <c r="G402" s="18"/>
       <c r="H402" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I402" s="12"/>
       <c r="J402" s="12"/>
       <c r="K402" s="12"/>
       <c r="L402" s="12"/>
       <c r="M402" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N402" s="14"/>
       <c r="O402" s="15"/>
@@ -25867,22 +26289,22 @@
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
       <c r="I403" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J403" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K403" s="12"/>
       <c r="L403" s="12"/>
       <c r="M403" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N403" s="14"/>
       <c r="O403" s="15"/>
       <c r="P403" s="14"/>
       <c r="Q403" s="16"/>
       <c r="R403" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="404" spans="1:18" ht="63" x14ac:dyDescent="0.4">
@@ -25898,22 +26320,22 @@
       <c r="G404" s="18"/>
       <c r="H404" s="18"/>
       <c r="I404" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J404" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K404" s="12"/>
       <c r="L404" s="12"/>
       <c r="M404" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N404" s="14"/>
       <c r="O404" s="15"/>
       <c r="P404" s="14"/>
       <c r="Q404" s="16"/>
       <c r="R404" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="405" spans="1:18" ht="47.25" x14ac:dyDescent="0.4">
@@ -25921,7 +26343,7 @@
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
       <c r="D405" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
@@ -25932,7 +26354,7 @@
       <c r="K405" s="12"/>
       <c r="L405" s="12"/>
       <c r="M405" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N405" s="14"/>
       <c r="O405" s="15"/>
@@ -25947,10 +26369,10 @@
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
       <c r="D406" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E406" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F406" s="11"/>
       <c r="G406" s="18"/>
@@ -25960,7 +26382,7 @@
       <c r="K406" s="12"/>
       <c r="L406" s="12"/>
       <c r="M406" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N406" s="14"/>
       <c r="O406" s="15"/>
@@ -25976,10 +26398,10 @@
       <c r="C407" s="12"/>
       <c r="D407" s="12"/>
       <c r="E407" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F407" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G407" s="18"/>
       <c r="H407" s="18"/>
@@ -25988,7 +26410,7 @@
       <c r="K407" s="12"/>
       <c r="L407" s="12"/>
       <c r="M407" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N407" s="14"/>
       <c r="O407" s="15"/>
@@ -26006,7 +26428,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
       <c r="G408" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H408" s="18"/>
       <c r="I408" s="12"/>
@@ -26014,7 +26436,7 @@
       <c r="K408" s="12"/>
       <c r="L408" s="12"/>
       <c r="M408" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N408" s="14"/>
       <c r="O408" s="15"/>
@@ -26032,7 +26454,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
       <c r="G409" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H409" s="18"/>
       <c r="I409" s="12"/>
@@ -26040,7 +26462,7 @@
       <c r="K409" s="12"/>
       <c r="L409" s="12"/>
       <c r="M409" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N409" s="14"/>
       <c r="O409" s="15"/>
@@ -26057,7 +26479,7 @@
       <c r="D410" s="12"/>
       <c r="E410" s="11"/>
       <c r="F410" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G410" s="18"/>
       <c r="H410" s="18"/>
@@ -26066,7 +26488,7 @@
       <c r="K410" s="12"/>
       <c r="L410" s="12"/>
       <c r="M410" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N410" s="14"/>
       <c r="O410" s="15"/>
@@ -26081,10 +26503,10 @@
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
       <c r="D411" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E411" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F411" s="11"/>
       <c r="G411" s="18"/>
@@ -26094,7 +26516,7 @@
       <c r="K411" s="12"/>
       <c r="L411" s="12"/>
       <c r="M411" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N411" s="14"/>
       <c r="O411" s="15"/>
@@ -26109,13 +26531,13 @@
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
       <c r="D412" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E412" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F412" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G412" s="18"/>
       <c r="H412" s="18"/>
@@ -26124,7 +26546,7 @@
       <c r="K412" s="12"/>
       <c r="L412" s="12"/>
       <c r="M412" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N412" s="14"/>
       <c r="O412" s="15"/>
@@ -26140,10 +26562,10 @@
       <c r="C413" s="12"/>
       <c r="D413" s="12"/>
       <c r="E413" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F413" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="F413" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
@@ -26152,7 +26574,7 @@
       <c r="K413" s="12"/>
       <c r="L413" s="12"/>
       <c r="M413" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N413" s="14"/>
       <c r="O413" s="15"/>
@@ -26167,16 +26589,16 @@
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
       <c r="D414" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E414" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F414" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G414" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H414" s="12" t="s">
         <v>96</v>
@@ -26186,7 +26608,7 @@
       <c r="K414" s="12"/>
       <c r="L414" s="12"/>
       <c r="M414" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N414" s="14"/>
       <c r="O414" s="15"/>
@@ -26205,14 +26627,14 @@
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
       <c r="H415" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I415" s="12"/>
       <c r="J415" s="12"/>
       <c r="K415" s="12"/>
       <c r="L415" s="12"/>
       <c r="M415" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N415" s="14"/>
       <c r="O415" s="15"/>
@@ -26230,7 +26652,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
       <c r="G416" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H416" s="12" t="s">
         <v>96</v>
@@ -26240,7 +26662,7 @@
       <c r="K416" s="12"/>
       <c r="L416" s="12"/>
       <c r="M416" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N416" s="14"/>
       <c r="O416" s="15"/>
@@ -26259,14 +26681,14 @@
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
       <c r="H417" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I417" s="12"/>
       <c r="J417" s="12"/>
       <c r="K417" s="12"/>
       <c r="L417" s="12"/>
       <c r="M417" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N417" s="14"/>
       <c r="O417" s="15"/>
@@ -26284,7 +26706,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
       <c r="G418" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H418" s="12" t="s">
         <v>96</v>
@@ -26294,7 +26716,7 @@
       <c r="K418" s="12"/>
       <c r="L418" s="12"/>
       <c r="M418" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N418" s="14"/>
       <c r="O418" s="15"/>
@@ -26313,14 +26735,14 @@
       <c r="F419" s="11"/>
       <c r="G419" s="18"/>
       <c r="H419" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I419" s="12"/>
       <c r="J419" s="12"/>
       <c r="K419" s="12"/>
       <c r="L419" s="12"/>
       <c r="M419" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N419" s="14"/>
       <c r="O419" s="15"/>
@@ -26338,7 +26760,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
       <c r="G420" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H420" s="12" t="s">
         <v>96</v>
@@ -26348,7 +26770,7 @@
       <c r="K420" s="12"/>
       <c r="L420" s="12"/>
       <c r="M420" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N420" s="14"/>
       <c r="O420" s="15"/>
@@ -26367,14 +26789,14 @@
       <c r="F421" s="11"/>
       <c r="G421" s="18"/>
       <c r="H421" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I421" s="12"/>
       <c r="J421" s="12"/>
       <c r="K421" s="12"/>
       <c r="L421" s="12"/>
       <c r="M421" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N421" s="14"/>
       <c r="O421" s="15"/>
@@ -26390,7 +26812,7 @@
       <c r="C422" s="12"/>
       <c r="D422" s="12"/>
       <c r="E422" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F422" s="12" t="s">
         <v>96</v>
@@ -26402,7 +26824,7 @@
       <c r="K422" s="12"/>
       <c r="L422" s="12"/>
       <c r="M422" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N422" s="14"/>
       <c r="O422" s="15"/>
@@ -26419,7 +26841,7 @@
       <c r="D423" s="12"/>
       <c r="E423" s="12"/>
       <c r="F423" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G423" s="12"/>
       <c r="H423" s="12"/>
@@ -26428,7 +26850,7 @@
       <c r="K423" s="12"/>
       <c r="L423" s="12"/>
       <c r="M423" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N423" s="14"/>
       <c r="O423" s="15"/>
@@ -26445,7 +26867,7 @@
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G424" s="12"/>
       <c r="H424" s="12"/>
@@ -26454,7 +26876,7 @@
       <c r="K424" s="12"/>
       <c r="L424" s="12"/>
       <c r="M424" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N424" s="14"/>
       <c r="O424" s="15"/>
@@ -26471,7 +26893,7 @@
       <c r="D425" s="12"/>
       <c r="E425" s="12"/>
       <c r="F425" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G425" s="12"/>
       <c r="H425" s="12"/>
@@ -26480,7 +26902,7 @@
       <c r="K425" s="12"/>
       <c r="L425" s="12"/>
       <c r="M425" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N425" s="14"/>
       <c r="O425" s="15"/>
@@ -26497,10 +26919,10 @@
       <c r="D426" s="12"/>
       <c r="E426" s="11"/>
       <c r="F426" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G426" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H426" s="12" t="s">
         <v>96</v>
@@ -26510,7 +26932,7 @@
       <c r="K426" s="12"/>
       <c r="L426" s="12"/>
       <c r="M426" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N426" s="14"/>
       <c r="O426" s="15"/>
@@ -26536,7 +26958,7 @@
       <c r="K427" s="12"/>
       <c r="L427" s="12"/>
       <c r="M427" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N427" s="14"/>
       <c r="O427" s="15"/>
@@ -26562,7 +26984,7 @@
       <c r="K428" s="12"/>
       <c r="L428" s="12"/>
       <c r="M428" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N428" s="14"/>
       <c r="O428" s="15"/>
@@ -26581,14 +27003,14 @@
       <c r="F429" s="11"/>
       <c r="G429" s="18"/>
       <c r="H429" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I429" s="12"/>
       <c r="J429" s="12"/>
       <c r="K429" s="12"/>
       <c r="L429" s="12"/>
       <c r="M429" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N429" s="14"/>
       <c r="O429" s="15"/>
@@ -26606,7 +27028,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
       <c r="G430" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H430" s="12" t="s">
         <v>96</v>
@@ -26616,7 +27038,7 @@
       <c r="K430" s="12"/>
       <c r="L430" s="12"/>
       <c r="M430" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N430" s="14"/>
       <c r="O430" s="15"/>
@@ -26635,14 +27057,14 @@
       <c r="F431" s="11"/>
       <c r="G431" s="18"/>
       <c r="H431" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I431" s="12"/>
       <c r="J431" s="12"/>
       <c r="K431" s="12"/>
       <c r="L431" s="12"/>
       <c r="M431" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N431" s="14"/>
       <c r="O431" s="15"/>
@@ -26660,7 +27082,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
       <c r="G432" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H432" s="12" t="s">
         <v>96</v>
@@ -26670,7 +27092,7 @@
       <c r="K432" s="12"/>
       <c r="L432" s="12"/>
       <c r="M432" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N432" s="14"/>
       <c r="O432" s="15"/>
@@ -26689,14 +27111,14 @@
       <c r="F433" s="11"/>
       <c r="G433" s="18"/>
       <c r="H433" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I433" s="12"/>
       <c r="J433" s="12"/>
       <c r="K433" s="12"/>
       <c r="L433" s="12"/>
       <c r="M433" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N433" s="14"/>
       <c r="O433" s="15"/>
@@ -26712,7 +27134,7 @@
       <c r="C434" s="12"/>
       <c r="D434" s="12"/>
       <c r="E434" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F434" s="12" t="s">
         <v>96</v>
@@ -26724,7 +27146,7 @@
       <c r="K434" s="12"/>
       <c r="L434" s="12"/>
       <c r="M434" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N434" s="14"/>
       <c r="O434" s="15"/>
@@ -26741,7 +27163,7 @@
       <c r="D435" s="12"/>
       <c r="E435" s="12"/>
       <c r="F435" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G435" s="12"/>
       <c r="H435" s="12"/>
@@ -26750,7 +27172,7 @@
       <c r="K435" s="12"/>
       <c r="L435" s="12"/>
       <c r="M435" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N435" s="14"/>
       <c r="O435" s="15"/>
@@ -26767,7 +27189,7 @@
       <c r="D436" s="12"/>
       <c r="E436" s="12"/>
       <c r="F436" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G436" s="12"/>
       <c r="H436" s="12"/>
@@ -26776,7 +27198,7 @@
       <c r="K436" s="12"/>
       <c r="L436" s="12"/>
       <c r="M436" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N436" s="14"/>
       <c r="O436" s="15"/>
@@ -26793,7 +27215,7 @@
       <c r="D437" s="12"/>
       <c r="E437" s="12"/>
       <c r="F437" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G437" s="12"/>
       <c r="H437" s="12"/>
@@ -26802,7 +27224,7 @@
       <c r="K437" s="12"/>
       <c r="L437" s="12"/>
       <c r="M437" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N437" s="14"/>
       <c r="O437" s="15"/>
@@ -26819,10 +27241,10 @@
       <c r="D438" s="12"/>
       <c r="E438" s="11"/>
       <c r="F438" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G438" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H438" s="12" t="s">
         <v>96</v>
@@ -26832,7 +27254,7 @@
       <c r="K438" s="12"/>
       <c r="L438" s="12"/>
       <c r="M438" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N438" s="14"/>
       <c r="O438" s="15"/>
@@ -26858,7 +27280,7 @@
       <c r="K439" s="12"/>
       <c r="L439" s="12"/>
       <c r="M439" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N439" s="14"/>
       <c r="O439" s="15"/>
@@ -26884,7 +27306,7 @@
       <c r="K440" s="12"/>
       <c r="L440" s="12"/>
       <c r="M440" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N440" s="14"/>
       <c r="O440" s="15"/>
@@ -26903,14 +27325,14 @@
       <c r="F441" s="11"/>
       <c r="G441" s="18"/>
       <c r="H441" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I441" s="12"/>
       <c r="J441" s="12"/>
       <c r="K441" s="12"/>
       <c r="L441" s="12"/>
       <c r="M441" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N441" s="14"/>
       <c r="O441" s="15"/>
@@ -26928,7 +27350,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
       <c r="G442" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H442" s="12" t="s">
         <v>96</v>
@@ -26938,7 +27360,7 @@
       <c r="K442" s="12"/>
       <c r="L442" s="12"/>
       <c r="M442" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N442" s="14"/>
       <c r="O442" s="15"/>
@@ -26957,14 +27379,14 @@
       <c r="F443" s="11"/>
       <c r="G443" s="18"/>
       <c r="H443" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I443" s="12"/>
       <c r="J443" s="12"/>
       <c r="K443" s="12"/>
       <c r="L443" s="12"/>
       <c r="M443" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N443" s="14"/>
       <c r="O443" s="15"/>
@@ -26982,7 +27404,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
       <c r="G444" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H444" s="12" t="s">
         <v>96</v>
@@ -26992,7 +27414,7 @@
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
       <c r="M444" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N444" s="14"/>
       <c r="O444" s="15"/>
@@ -27011,21 +27433,21 @@
       <c r="F445" s="11"/>
       <c r="G445" s="18"/>
       <c r="H445" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I445" s="12"/>
       <c r="J445" s="12"/>
       <c r="K445" s="12"/>
       <c r="L445" s="12"/>
       <c r="M445" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N445" s="14"/>
       <c r="O445" s="15"/>
       <c r="P445" s="14"/>
       <c r="Q445" s="16"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A446" s="60">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -27033,10 +27455,10 @@
       <c r="B446" s="28"/>
       <c r="C446" s="28"/>
       <c r="D446" s="28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E446" s="29" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F446" s="29"/>
       <c r="G446" s="30"/>
@@ -27046,14 +27468,20 @@
       <c r="K446" s="28"/>
       <c r="L446" s="28"/>
       <c r="M446" s="29" t="s">
-        <v>745</v>
-      </c>
-      <c r="N446" s="14"/>
-      <c r="O446" s="15"/>
-      <c r="P446" s="14"/>
+        <v>743</v>
+      </c>
+      <c r="N446" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O446" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P446" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q446" s="16"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A447" s="60">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -27062,10 +27490,10 @@
       <c r="C447" s="28"/>
       <c r="D447" s="28"/>
       <c r="E447" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F447" s="29" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G447" s="30"/>
       <c r="H447" s="30"/>
@@ -27074,14 +27502,20 @@
       <c r="K447" s="28"/>
       <c r="L447" s="28"/>
       <c r="M447" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="N447" s="14"/>
-      <c r="O447" s="15"/>
-      <c r="P447" s="14"/>
+        <v>732</v>
+      </c>
+      <c r="N447" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O447" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P447" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q447" s="16"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A448" s="60">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -27091,7 +27525,7 @@
       <c r="D448" s="28"/>
       <c r="E448" s="29"/>
       <c r="F448" s="29" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G448" s="30"/>
       <c r="H448" s="30"/>
@@ -27100,14 +27534,20 @@
       <c r="K448" s="28"/>
       <c r="L448" s="28"/>
       <c r="M448" s="29" t="s">
-        <v>746</v>
-      </c>
-      <c r="N448" s="14"/>
-      <c r="O448" s="15"/>
-      <c r="P448" s="14"/>
+        <v>744</v>
+      </c>
+      <c r="N448" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O448" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P448" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q448" s="16"/>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A449" s="60">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -27116,7 +27556,7 @@
       <c r="C449" s="28"/>
       <c r="D449" s="28"/>
       <c r="E449" s="29" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F449" s="29"/>
       <c r="G449" s="30"/>
@@ -27126,14 +27566,20 @@
       <c r="K449" s="28"/>
       <c r="L449" s="28"/>
       <c r="M449" s="29" t="s">
-        <v>750</v>
-      </c>
-      <c r="N449" s="14"/>
-      <c r="O449" s="15"/>
-      <c r="P449" s="14"/>
+        <v>748</v>
+      </c>
+      <c r="N449" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O449" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P449" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q449" s="16"/>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A450" s="60">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -27142,7 +27588,7 @@
       <c r="C450" s="28"/>
       <c r="D450" s="28"/>
       <c r="E450" s="29" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F450" s="29"/>
       <c r="G450" s="30"/>
@@ -27152,11 +27598,17 @@
       <c r="K450" s="28"/>
       <c r="L450" s="28"/>
       <c r="M450" s="29" t="s">
-        <v>751</v>
-      </c>
-      <c r="N450" s="14"/>
-      <c r="O450" s="15"/>
-      <c r="P450" s="14"/>
+        <v>749</v>
+      </c>
+      <c r="N450" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O450" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P450" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q450" s="16"/>
     </row>
     <row r="451" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -27166,16 +27618,16 @@
       </c>
       <c r="B451" s="28"/>
       <c r="C451" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D451" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="E451" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="F451" s="29" t="s">
         <v>699</v>
-      </c>
-      <c r="D451" s="28" t="s">
-        <v>703</v>
-      </c>
-      <c r="E451" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="F451" s="29" t="s">
-        <v>701</v>
       </c>
       <c r="G451" s="30"/>
       <c r="H451" s="30"/>
@@ -27184,11 +27636,17 @@
       <c r="K451" s="28"/>
       <c r="L451" s="28"/>
       <c r="M451" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="N451" s="14"/>
-      <c r="O451" s="15"/>
-      <c r="P451" s="14"/>
+        <v>700</v>
+      </c>
+      <c r="N451" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O451" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P451" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q451" s="16"/>
     </row>
     <row r="452" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27210,14 +27668,20 @@
       <c r="K452" s="28"/>
       <c r="L452" s="28"/>
       <c r="M452" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="N452" s="14"/>
-      <c r="O452" s="15"/>
-      <c r="P452" s="14"/>
+        <v>702</v>
+      </c>
+      <c r="N452" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O452" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P452" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q452" s="16"/>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A453" s="60">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -27227,7 +27691,7 @@
       <c r="D453" s="28"/>
       <c r="E453" s="29"/>
       <c r="F453" s="29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G453" s="30"/>
       <c r="H453" s="30"/>
@@ -27236,11 +27700,17 @@
       <c r="K453" s="28"/>
       <c r="L453" s="28"/>
       <c r="M453" s="29" t="s">
-        <v>719</v>
-      </c>
-      <c r="N453" s="14"/>
-      <c r="O453" s="15"/>
-      <c r="P453" s="14"/>
+        <v>717</v>
+      </c>
+      <c r="N453" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O453" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P453" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q453" s="16"/>
     </row>
     <row r="454" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -27251,13 +27721,13 @@
       <c r="B454" s="28"/>
       <c r="C454" s="28"/>
       <c r="D454" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E454" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F454" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G454" s="30"/>
       <c r="H454" s="30"/>
@@ -27266,11 +27736,17 @@
       <c r="K454" s="28"/>
       <c r="L454" s="28"/>
       <c r="M454" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="N454" s="14"/>
-      <c r="O454" s="15"/>
-      <c r="P454" s="14"/>
+        <v>703</v>
+      </c>
+      <c r="N454" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O454" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P454" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q454" s="16"/>
     </row>
     <row r="455" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -27282,10 +27758,10 @@
       <c r="C455" s="28"/>
       <c r="D455" s="28"/>
       <c r="E455" s="29" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F455" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G455" s="30"/>
       <c r="H455" s="30"/>
@@ -27294,11 +27770,17 @@
       <c r="K455" s="28"/>
       <c r="L455" s="28"/>
       <c r="M455" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="N455" s="14"/>
-      <c r="O455" s="15"/>
-      <c r="P455" s="14"/>
+        <v>705</v>
+      </c>
+      <c r="N455" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O455" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P455" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q455" s="16"/>
     </row>
     <row r="456" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -27320,14 +27802,20 @@
       <c r="K456" s="28"/>
       <c r="L456" s="28"/>
       <c r="M456" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="N456" s="14"/>
-      <c r="O456" s="15"/>
-      <c r="P456" s="14"/>
+        <v>706</v>
+      </c>
+      <c r="N456" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O456" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P456" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q456" s="16"/>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A457" s="60">
         <f t="shared" si="6"/>
         <v>451</v>
@@ -27336,10 +27824,10 @@
       <c r="C457" s="28"/>
       <c r="D457" s="28"/>
       <c r="E457" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F457" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G457" s="30"/>
       <c r="H457" s="30"/>
@@ -27348,14 +27836,20 @@
       <c r="K457" s="28"/>
       <c r="L457" s="28"/>
       <c r="M457" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="N457" s="14"/>
-      <c r="O457" s="15"/>
-      <c r="P457" s="14"/>
+        <v>709</v>
+      </c>
+      <c r="N457" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O457" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P457" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q457" s="16"/>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A458" s="60">
         <f t="shared" si="6"/>
         <v>452</v>
@@ -27365,7 +27859,7 @@
       <c r="D458" s="28"/>
       <c r="E458" s="29"/>
       <c r="F458" s="29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G458" s="30"/>
       <c r="H458" s="30"/>
@@ -27374,14 +27868,20 @@
       <c r="K458" s="28"/>
       <c r="L458" s="28"/>
       <c r="M458" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="N458" s="14"/>
-      <c r="O458" s="15"/>
-      <c r="P458" s="14"/>
+        <v>710</v>
+      </c>
+      <c r="N458" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O458" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P458" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q458" s="16"/>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A459" s="60">
         <f t="shared" si="6"/>
         <v>453</v>
@@ -27389,7 +27889,7 @@
       <c r="B459" s="28"/>
       <c r="C459" s="28"/>
       <c r="D459" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E459" s="29"/>
       <c r="F459" s="29"/>
@@ -27400,11 +27900,17 @@
       <c r="K459" s="28"/>
       <c r="L459" s="28"/>
       <c r="M459" s="29" t="s">
-        <v>715</v>
-      </c>
-      <c r="N459" s="14"/>
-      <c r="O459" s="15"/>
-      <c r="P459" s="14"/>
+        <v>713</v>
+      </c>
+      <c r="N459" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O459" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P459" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q459" s="16"/>
     </row>
     <row r="460" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -27415,7 +27921,7 @@
       <c r="B460" s="28"/>
       <c r="C460" s="28"/>
       <c r="D460" s="28" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E460" s="29"/>
       <c r="F460" s="29"/>
@@ -27426,11 +27932,17 @@
       <c r="K460" s="28"/>
       <c r="L460" s="28"/>
       <c r="M460" s="29" t="s">
-        <v>717</v>
-      </c>
-      <c r="N460" s="14"/>
-      <c r="O460" s="15"/>
-      <c r="P460" s="14"/>
+        <v>715</v>
+      </c>
+      <c r="N460" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O460" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P460" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q460" s="16"/>
     </row>
     <row r="461" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27441,13 +27953,13 @@
       <c r="B461" s="28"/>
       <c r="C461" s="28"/>
       <c r="D461" s="28" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E461" s="29" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F461" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G461" s="30"/>
       <c r="H461" s="30"/>
@@ -27456,11 +27968,17 @@
       <c r="K461" s="28"/>
       <c r="L461" s="28"/>
       <c r="M461" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="N461" s="14"/>
-      <c r="O461" s="15"/>
-      <c r="P461" s="14"/>
+        <v>723</v>
+      </c>
+      <c r="N461" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O461" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P461" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q461" s="16"/>
     </row>
     <row r="462" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27473,7 +27991,7 @@
       <c r="D462" s="28"/>
       <c r="E462" s="29"/>
       <c r="F462" s="29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G462" s="30"/>
       <c r="H462" s="30"/>
@@ -27482,11 +28000,17 @@
       <c r="K462" s="28"/>
       <c r="L462" s="28"/>
       <c r="M462" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="N462" s="14"/>
-      <c r="O462" s="15"/>
-      <c r="P462" s="14"/>
+        <v>724</v>
+      </c>
+      <c r="N462" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O462" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P462" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q462" s="16"/>
     </row>
     <row r="463" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27499,7 +28023,7 @@
       <c r="D463" s="28"/>
       <c r="E463" s="29"/>
       <c r="F463" s="29" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G463" s="30"/>
       <c r="H463" s="30"/>
@@ -27508,14 +28032,20 @@
       <c r="K463" s="28"/>
       <c r="L463" s="28"/>
       <c r="M463" s="29" t="s">
-        <v>727</v>
-      </c>
-      <c r="N463" s="14"/>
-      <c r="O463" s="15"/>
-      <c r="P463" s="14"/>
+        <v>725</v>
+      </c>
+      <c r="N463" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O463" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P463" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q463" s="16"/>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A464" s="60">
         <f t="shared" si="6"/>
         <v>458</v>
@@ -27523,10 +28053,10 @@
       <c r="B464" s="28"/>
       <c r="C464" s="28"/>
       <c r="D464" s="28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E464" s="29" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F464" s="29"/>
       <c r="G464" s="30"/>
@@ -27536,14 +28066,20 @@
       <c r="K464" s="28"/>
       <c r="L464" s="28"/>
       <c r="M464" s="29" t="s">
-        <v>735</v>
-      </c>
-      <c r="N464" s="14"/>
-      <c r="O464" s="15"/>
-      <c r="P464" s="14"/>
+        <v>733</v>
+      </c>
+      <c r="N464" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O464" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P464" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q464" s="16"/>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A465" s="60">
         <f t="shared" si="6"/>
         <v>459</v>
@@ -27552,10 +28088,10 @@
       <c r="C465" s="28"/>
       <c r="D465" s="28"/>
       <c r="E465" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F465" s="29" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G465" s="30"/>
       <c r="H465" s="30"/>
@@ -27564,14 +28100,20 @@
       <c r="K465" s="28"/>
       <c r="L465" s="28"/>
       <c r="M465" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="N465" s="14"/>
-      <c r="O465" s="15"/>
-      <c r="P465" s="14"/>
+        <v>732</v>
+      </c>
+      <c r="N465" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O465" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P465" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q465" s="16"/>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A466" s="60">
         <f t="shared" si="6"/>
         <v>460</v>
@@ -27581,7 +28123,7 @@
       <c r="D466" s="28"/>
       <c r="E466" s="29"/>
       <c r="F466" s="29" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G466" s="30"/>
       <c r="H466" s="30"/>
@@ -27590,14 +28132,20 @@
       <c r="K466" s="28"/>
       <c r="L466" s="28"/>
       <c r="M466" s="29" t="s">
-        <v>733</v>
-      </c>
-      <c r="N466" s="14"/>
-      <c r="O466" s="15"/>
-      <c r="P466" s="14"/>
+        <v>731</v>
+      </c>
+      <c r="N466" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O466" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P466" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q466" s="16"/>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A467" s="60">
         <f t="shared" si="6"/>
         <v>461</v>
@@ -27606,7 +28154,7 @@
       <c r="C467" s="28"/>
       <c r="D467" s="28"/>
       <c r="E467" s="29" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F467" s="29"/>
       <c r="G467" s="30"/>
@@ -27616,14 +28164,20 @@
       <c r="K467" s="28"/>
       <c r="L467" s="28"/>
       <c r="M467" s="29" t="s">
-        <v>750</v>
-      </c>
-      <c r="N467" s="14"/>
-      <c r="O467" s="15"/>
-      <c r="P467" s="14"/>
+        <v>748</v>
+      </c>
+      <c r="N467" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O467" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P467" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q467" s="16"/>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A468" s="60">
         <f t="shared" si="6"/>
         <v>462</v>
@@ -27632,7 +28186,7 @@
       <c r="C468" s="28"/>
       <c r="D468" s="28"/>
       <c r="E468" s="29" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F468" s="29"/>
       <c r="G468" s="30"/>
@@ -27642,11 +28196,17 @@
       <c r="K468" s="28"/>
       <c r="L468" s="28"/>
       <c r="M468" s="29" t="s">
-        <v>751</v>
-      </c>
-      <c r="N468" s="14"/>
-      <c r="O468" s="15"/>
-      <c r="P468" s="14"/>
+        <v>749</v>
+      </c>
+      <c r="N468" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O468" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P468" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q468" s="16"/>
     </row>
     <row r="469" spans="1:17" ht="63" x14ac:dyDescent="0.4">
@@ -27657,32 +28217,38 @@
       <c r="B469" s="28"/>
       <c r="C469" s="28"/>
       <c r="D469" s="29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E469" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F469" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="G469" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="H469" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="I469" s="30" t="s">
         <v>408</v>
-      </c>
-      <c r="G469" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="H469" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="I469" s="30" t="s">
-        <v>410</v>
       </c>
       <c r="J469" s="28"/>
       <c r="K469" s="28"/>
       <c r="L469" s="28"/>
       <c r="M469" s="29" t="s">
-        <v>738</v>
-      </c>
-      <c r="N469" s="13"/>
-      <c r="O469" s="15"/>
-      <c r="P469" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="N469" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O469" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P469" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q469" s="16"/>
     </row>
     <row r="470" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27698,17 +28264,23 @@
       <c r="G470" s="29"/>
       <c r="H470" s="30"/>
       <c r="I470" s="30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J470" s="28"/>
       <c r="K470" s="28"/>
       <c r="L470" s="28"/>
       <c r="M470" s="29" t="s">
-        <v>737</v>
-      </c>
-      <c r="N470" s="13"/>
-      <c r="O470" s="15"/>
-      <c r="P470" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="N470" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O470" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P470" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q470" s="16"/>
     </row>
     <row r="471" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27724,17 +28296,23 @@
       <c r="G471" s="29"/>
       <c r="H471" s="30"/>
       <c r="I471" s="30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J471" s="28"/>
       <c r="K471" s="28"/>
       <c r="L471" s="28"/>
       <c r="M471" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="N471" s="13"/>
-      <c r="O471" s="15"/>
-      <c r="P471" s="14"/>
+        <v>737</v>
+      </c>
+      <c r="N471" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O471" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P471" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q471" s="16"/>
     </row>
     <row r="472" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
@@ -27751,16 +28329,22 @@
       <c r="H472" s="30"/>
       <c r="I472" s="30"/>
       <c r="J472" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K472" s="28"/>
       <c r="L472" s="28"/>
       <c r="M472" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="N472" s="13"/>
-      <c r="O472" s="15"/>
-      <c r="P472" s="14"/>
+        <v>577</v>
+      </c>
+      <c r="N472" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O472" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P472" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q472" s="16"/>
     </row>
     <row r="473" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
@@ -27777,16 +28361,22 @@
       <c r="H473" s="30"/>
       <c r="I473" s="30"/>
       <c r="J473" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K473" s="28"/>
       <c r="L473" s="28"/>
       <c r="M473" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="N473" s="13"/>
-      <c r="O473" s="15"/>
-      <c r="P473" s="14"/>
+        <v>577</v>
+      </c>
+      <c r="N473" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O473" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P473" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q473" s="16"/>
     </row>
     <row r="474" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27802,17 +28392,23 @@
       <c r="G474" s="29"/>
       <c r="H474" s="30"/>
       <c r="I474" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J474" s="28"/>
       <c r="K474" s="28"/>
       <c r="L474" s="28"/>
       <c r="M474" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="N474" s="13"/>
-      <c r="O474" s="15"/>
-      <c r="P474" s="14"/>
+        <v>784</v>
+      </c>
+      <c r="N474" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O474" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P474" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q474" s="16"/>
     </row>
     <row r="475" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27829,20 +28425,26 @@
       <c r="H475" s="30"/>
       <c r="I475" s="30"/>
       <c r="J475" s="28" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K475" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L475" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M475" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="N475" s="13"/>
-      <c r="O475" s="15"/>
-      <c r="P475" s="14"/>
+        <v>578</v>
+      </c>
+      <c r="N475" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O475" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P475" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q475" s="16"/>
     </row>
     <row r="476" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27861,14 +28463,20 @@
       <c r="J476" s="28"/>
       <c r="K476" s="28"/>
       <c r="L476" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M476" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="N476" s="13"/>
-      <c r="O476" s="15"/>
-      <c r="P476" s="14"/>
+        <v>578</v>
+      </c>
+      <c r="N476" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O476" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P476" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q476" s="16"/>
     </row>
     <row r="477" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27886,17 +28494,23 @@
       <c r="I477" s="30"/>
       <c r="J477" s="28"/>
       <c r="K477" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L477" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M477" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="N477" s="13"/>
-      <c r="O477" s="15"/>
-      <c r="P477" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="N477" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O477" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P477" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q477" s="16"/>
     </row>
     <row r="478" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27915,14 +28529,20 @@
       <c r="J478" s="28"/>
       <c r="K478" s="28"/>
       <c r="L478" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M478" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="N478" s="13"/>
-      <c r="O478" s="15"/>
-      <c r="P478" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="N478" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O478" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P478" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q478" s="16"/>
     </row>
     <row r="479" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27940,17 +28560,23 @@
       <c r="I479" s="30"/>
       <c r="J479" s="28"/>
       <c r="K479" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L479" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M479" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="N479" s="13"/>
-      <c r="O479" s="15"/>
-      <c r="P479" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="N479" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O479" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P479" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q479" s="16"/>
     </row>
     <row r="480" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -27969,14 +28595,20 @@
       <c r="J480" s="28"/>
       <c r="K480" s="28"/>
       <c r="L480" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M480" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="N480" s="13"/>
-      <c r="O480" s="15"/>
-      <c r="P480" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="N480" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O480" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P480" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q480" s="16"/>
     </row>
     <row r="481" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
@@ -27993,21 +28625,29 @@
       <c r="H481" s="30"/>
       <c r="I481" s="30"/>
       <c r="J481" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K481" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L481" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M481" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="N481" s="13"/>
-      <c r="O481" s="15"/>
-      <c r="P481" s="14"/>
-      <c r="Q481" s="16"/>
+        <v>785</v>
+      </c>
+      <c r="N481" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O481" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P481" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q481" s="16" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="482" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A482" s="60">
@@ -28025,15 +28665,23 @@
       <c r="J482" s="28"/>
       <c r="K482" s="28"/>
       <c r="L482" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M482" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="N482" s="13"/>
-      <c r="O482" s="15"/>
-      <c r="P482" s="14"/>
-      <c r="Q482" s="16"/>
+        <v>786</v>
+      </c>
+      <c r="N482" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O482" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P482" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q482" s="16" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="483" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A483" s="60">
@@ -28048,17 +28696,23 @@
       <c r="G483" s="29"/>
       <c r="H483" s="30"/>
       <c r="I483" s="30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J483" s="28"/>
       <c r="K483" s="28"/>
       <c r="L483" s="28"/>
       <c r="M483" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="N483" s="13"/>
-      <c r="O483" s="15"/>
-      <c r="P483" s="14"/>
+        <v>737</v>
+      </c>
+      <c r="N483" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O483" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P483" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q483" s="16"/>
     </row>
     <row r="484" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28075,20 +28729,26 @@
       <c r="H484" s="30"/>
       <c r="I484" s="30"/>
       <c r="J484" s="28" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K484" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L484" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M484" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="N484" s="13"/>
-      <c r="O484" s="15"/>
-      <c r="P484" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="N484" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O484" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P484" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q484" s="16"/>
     </row>
     <row r="485" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28107,14 +28767,20 @@
       <c r="J485" s="28"/>
       <c r="K485" s="28"/>
       <c r="L485" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M485" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="N485" s="13"/>
-      <c r="O485" s="15"/>
-      <c r="P485" s="14"/>
+        <v>579</v>
+      </c>
+      <c r="N485" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O485" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P485" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q485" s="16"/>
     </row>
     <row r="486" spans="1:17" ht="63" x14ac:dyDescent="0.4">
@@ -28131,20 +28797,26 @@
       <c r="H486" s="30"/>
       <c r="I486" s="30"/>
       <c r="J486" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K486" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L486" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M486" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="N486" s="13"/>
-      <c r="O486" s="15"/>
-      <c r="P486" s="14"/>
+        <v>581</v>
+      </c>
+      <c r="N486" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O486" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P486" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q486" s="16"/>
     </row>
     <row r="487" spans="1:17" ht="63" x14ac:dyDescent="0.4">
@@ -28163,14 +28835,20 @@
       <c r="J487" s="28"/>
       <c r="K487" s="28"/>
       <c r="L487" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M487" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="N487" s="13"/>
-      <c r="O487" s="15"/>
-      <c r="P487" s="14"/>
+        <v>581</v>
+      </c>
+      <c r="N487" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O487" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P487" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q487" s="16"/>
     </row>
     <row r="488" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
@@ -28183,26 +28861,32 @@
       <c r="D488" s="28"/>
       <c r="E488" s="28"/>
       <c r="F488" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G488" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H488" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I488" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J488" s="28"/>
       <c r="K488" s="28"/>
       <c r="L488" s="28"/>
       <c r="M488" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="N488" s="13"/>
-      <c r="O488" s="15"/>
-      <c r="P488" s="14"/>
+        <v>410</v>
+      </c>
+      <c r="N488" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O488" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P488" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q488" s="16"/>
     </row>
     <row r="489" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28218,17 +28902,23 @@
       <c r="G489" s="29"/>
       <c r="H489" s="30"/>
       <c r="I489" s="30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J489" s="28"/>
       <c r="K489" s="28"/>
       <c r="L489" s="28"/>
       <c r="M489" s="29" t="s">
-        <v>737</v>
-      </c>
-      <c r="N489" s="13"/>
-      <c r="O489" s="15"/>
-      <c r="P489" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="N489" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O489" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P489" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q489" s="16"/>
     </row>
     <row r="490" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28244,17 +28934,23 @@
       <c r="G490" s="29"/>
       <c r="H490" s="30"/>
       <c r="I490" s="30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J490" s="28"/>
       <c r="K490" s="28"/>
       <c r="L490" s="28"/>
       <c r="M490" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="N490" s="13"/>
-      <c r="O490" s="15"/>
-      <c r="P490" s="14"/>
+        <v>737</v>
+      </c>
+      <c r="N490" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O490" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P490" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q490" s="16"/>
     </row>
     <row r="491" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -28271,18 +28967,24 @@
       <c r="H491" s="30"/>
       <c r="I491" s="30"/>
       <c r="J491" s="29" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K491" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L491" s="28"/>
       <c r="M491" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="N491" s="21"/>
-      <c r="O491" s="15"/>
-      <c r="P491" s="14"/>
+        <v>415</v>
+      </c>
+      <c r="N491" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O491" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P491" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q491" s="16"/>
     </row>
     <row r="492" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -28300,15 +29002,21 @@
       <c r="I492" s="30"/>
       <c r="J492" s="29"/>
       <c r="K492" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L492" s="28"/>
       <c r="M492" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="N492" s="21"/>
-      <c r="O492" s="15"/>
-      <c r="P492" s="14"/>
+        <v>415</v>
+      </c>
+      <c r="N492" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O492" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P492" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q492" s="16"/>
     </row>
     <row r="493" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28325,18 +29033,24 @@
       <c r="H493" s="30"/>
       <c r="I493" s="30"/>
       <c r="J493" s="29" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K493" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L493" s="28"/>
       <c r="M493" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="N493" s="13"/>
-      <c r="O493" s="15"/>
-      <c r="P493" s="14"/>
+        <v>415</v>
+      </c>
+      <c r="N493" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O493" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P493" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q493" s="16"/>
     </row>
     <row r="494" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -28354,15 +29068,21 @@
       <c r="I494" s="30"/>
       <c r="J494" s="29"/>
       <c r="K494" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L494" s="28"/>
       <c r="M494" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="N494" s="13"/>
-      <c r="O494" s="15"/>
-      <c r="P494" s="14"/>
+        <v>415</v>
+      </c>
+      <c r="N494" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O494" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P494" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q494" s="16"/>
     </row>
     <row r="495" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28378,17 +29098,23 @@
       <c r="G495" s="29"/>
       <c r="H495" s="30"/>
       <c r="I495" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J495" s="28"/>
       <c r="K495" s="28"/>
       <c r="L495" s="28"/>
       <c r="M495" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="N495" s="13"/>
-      <c r="O495" s="15"/>
-      <c r="P495" s="14"/>
+        <v>737</v>
+      </c>
+      <c r="N495" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O495" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P495" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q495" s="16"/>
     </row>
     <row r="496" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28405,21 +29131,27 @@
       <c r="H496" s="30"/>
       <c r="I496" s="30"/>
       <c r="J496" s="29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K496" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L496" s="28"/>
       <c r="M496" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="N496" s="13"/>
-      <c r="O496" s="15"/>
-      <c r="P496" s="14"/>
+        <v>414</v>
+      </c>
+      <c r="N496" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O496" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P496" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q496" s="16"/>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A497" s="60">
         <f t="shared" si="6"/>
         <v>491</v>
@@ -28434,15 +29166,21 @@
       <c r="I497" s="30"/>
       <c r="J497" s="29"/>
       <c r="K497" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L497" s="28"/>
       <c r="M497" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="N497" s="13"/>
-      <c r="O497" s="15"/>
-      <c r="P497" s="14"/>
+        <v>414</v>
+      </c>
+      <c r="N497" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O497" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P497" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q497" s="16"/>
     </row>
     <row r="498" spans="1:17" ht="63" x14ac:dyDescent="0.4">
@@ -28459,18 +29197,24 @@
       <c r="H498" s="30"/>
       <c r="I498" s="30"/>
       <c r="J498" s="29" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K498" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L498" s="28"/>
       <c r="M498" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="N498" s="13"/>
-      <c r="O498" s="15"/>
-      <c r="P498" s="14"/>
+        <v>416</v>
+      </c>
+      <c r="N498" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O498" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P498" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q498" s="16"/>
     </row>
     <row r="499" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -28488,15 +29232,21 @@
       <c r="I499" s="30"/>
       <c r="J499" s="29"/>
       <c r="K499" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L499" s="28"/>
       <c r="M499" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="N499" s="13"/>
-      <c r="O499" s="15"/>
-      <c r="P499" s="14"/>
+        <v>416</v>
+      </c>
+      <c r="N499" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O499" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P499" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q499" s="16"/>
     </row>
     <row r="500" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28512,17 +29262,23 @@
       <c r="G500" s="29"/>
       <c r="H500" s="30"/>
       <c r="I500" s="30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J500" s="28"/>
       <c r="K500" s="28"/>
       <c r="L500" s="28"/>
       <c r="M500" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="N500" s="13"/>
-      <c r="O500" s="15"/>
-      <c r="P500" s="14"/>
+        <v>737</v>
+      </c>
+      <c r="N500" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O500" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P500" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q500" s="16"/>
     </row>
     <row r="501" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28539,21 +29295,27 @@
       <c r="H501" s="30"/>
       <c r="I501" s="30"/>
       <c r="J501" s="29" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K501" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L501" s="28"/>
       <c r="M501" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="N501" s="13"/>
-      <c r="O501" s="15"/>
-      <c r="P501" s="14"/>
+        <v>414</v>
+      </c>
+      <c r="N501" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O501" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P501" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q501" s="16"/>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A502" s="60">
         <f t="shared" si="6"/>
         <v>496</v>
@@ -28568,15 +29330,21 @@
       <c r="I502" s="30"/>
       <c r="J502" s="29"/>
       <c r="K502" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L502" s="28"/>
       <c r="M502" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="N502" s="13"/>
-      <c r="O502" s="15"/>
-      <c r="P502" s="14"/>
+        <v>414</v>
+      </c>
+      <c r="N502" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O502" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P502" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q502" s="16"/>
     </row>
     <row r="503" spans="1:17" ht="63" x14ac:dyDescent="0.4">
@@ -28593,18 +29361,24 @@
       <c r="H503" s="30"/>
       <c r="I503" s="30"/>
       <c r="J503" s="29" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K503" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L503" s="28"/>
       <c r="M503" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="N503" s="13"/>
-      <c r="O503" s="15"/>
-      <c r="P503" s="14"/>
+        <v>416</v>
+      </c>
+      <c r="N503" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O503" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P503" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q503" s="16"/>
     </row>
     <row r="504" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -28622,15 +29396,21 @@
       <c r="I504" s="28"/>
       <c r="J504" s="28"/>
       <c r="K504" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L504" s="28"/>
       <c r="M504" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="N504" s="14"/>
-      <c r="O504" s="15"/>
-      <c r="P504" s="14"/>
+        <v>416</v>
+      </c>
+      <c r="N504" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O504" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P504" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q504" s="16"/>
     </row>
     <row r="505" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28642,10 +29422,10 @@
       <c r="C505" s="28"/>
       <c r="D505" s="28"/>
       <c r="E505" s="28" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F505" s="29" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G505" s="30"/>
       <c r="H505" s="30"/>
@@ -28654,11 +29434,17 @@
       <c r="K505" s="28"/>
       <c r="L505" s="28"/>
       <c r="M505" s="29" t="s">
-        <v>742</v>
-      </c>
-      <c r="N505" s="14"/>
-      <c r="O505" s="15"/>
-      <c r="P505" s="14"/>
+        <v>740</v>
+      </c>
+      <c r="N505" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O505" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P505" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q505" s="16"/>
     </row>
     <row r="506" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -28671,7 +29457,7 @@
       <c r="D506" s="28"/>
       <c r="E506" s="29"/>
       <c r="F506" s="29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G506" s="30"/>
       <c r="H506" s="30"/>
@@ -28680,14 +29466,20 @@
       <c r="K506" s="28"/>
       <c r="L506" s="28"/>
       <c r="M506" s="29" t="s">
-        <v>744</v>
-      </c>
-      <c r="N506" s="14"/>
-      <c r="O506" s="15"/>
-      <c r="P506" s="14"/>
+        <v>742</v>
+      </c>
+      <c r="N506" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O506" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P506" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q506" s="16"/>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:17" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A507" s="60">
         <f t="shared" si="6"/>
         <v>501</v>
@@ -28696,7 +29488,7 @@
       <c r="C507" s="28"/>
       <c r="D507" s="28"/>
       <c r="E507" s="29" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F507" s="29"/>
       <c r="G507" s="30"/>
@@ -28706,11 +29498,17 @@
       <c r="K507" s="28"/>
       <c r="L507" s="28"/>
       <c r="M507" s="29" t="s">
-        <v>753</v>
-      </c>
-      <c r="N507" s="14"/>
-      <c r="O507" s="15"/>
-      <c r="P507" s="14"/>
+        <v>751</v>
+      </c>
+      <c r="N507" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="O507" s="15">
+        <v>45639</v>
+      </c>
+      <c r="P507" s="14" t="s">
+        <v>789</v>
+      </c>
       <c r="Q507" s="16"/>
     </row>
     <row r="508" spans="1:17" x14ac:dyDescent="0.4">
@@ -28723,16 +29521,16 @@
         <v>59</v>
       </c>
       <c r="D508" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E508" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F508" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G508" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="F508" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="G508" s="11" t="s">
-        <v>503</v>
       </c>
       <c r="H508" s="18"/>
       <c r="I508" s="12"/>
@@ -28740,7 +29538,7 @@
       <c r="K508" s="12"/>
       <c r="L508" s="12"/>
       <c r="M508" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N508" s="14"/>
       <c r="O508" s="15"/>
@@ -28759,14 +29557,14 @@
       <c r="F509" s="11"/>
       <c r="G509" s="11"/>
       <c r="H509" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I509" s="12"/>
       <c r="J509" s="12"/>
       <c r="K509" s="12"/>
       <c r="L509" s="12"/>
       <c r="M509" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N509" s="14"/>
       <c r="O509" s="15"/>
@@ -28783,10 +29581,10 @@
       <c r="D510" s="12"/>
       <c r="E510" s="11"/>
       <c r="F510" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G510" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H510" s="18"/>
       <c r="I510" s="12"/>
@@ -28794,7 +29592,7 @@
       <c r="K510" s="12"/>
       <c r="L510" s="12"/>
       <c r="M510" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N510" s="14"/>
       <c r="O510" s="15"/>
@@ -28813,14 +29611,14 @@
       <c r="F511" s="11"/>
       <c r="G511" s="11"/>
       <c r="H511" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I511" s="12"/>
       <c r="J511" s="12"/>
       <c r="K511" s="12"/>
       <c r="L511" s="12"/>
       <c r="M511" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N511" s="14"/>
       <c r="O511" s="15"/>
@@ -28836,13 +29634,13 @@
       <c r="C512" s="12"/>
       <c r="D512" s="12"/>
       <c r="E512" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F512" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G512" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H512" s="18"/>
       <c r="I512" s="12"/>
@@ -28850,7 +29648,7 @@
       <c r="K512" s="12"/>
       <c r="L512" s="12"/>
       <c r="M512" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N512" s="14"/>
       <c r="O512" s="15"/>
@@ -28869,14 +29667,14 @@
       <c r="F513" s="11"/>
       <c r="G513" s="11"/>
       <c r="H513" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I513" s="12"/>
       <c r="J513" s="12"/>
       <c r="K513" s="12"/>
       <c r="L513" s="12"/>
       <c r="M513" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N513" s="14"/>
       <c r="O513" s="15"/>
@@ -28893,20 +29691,20 @@
       <c r="D514" s="12"/>
       <c r="E514" s="11"/>
       <c r="F514" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G514" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H514" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I514" s="12"/>
       <c r="J514" s="12"/>
       <c r="K514" s="12"/>
       <c r="L514" s="12"/>
       <c r="M514" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N514" s="14"/>
       <c r="O514" s="15"/>
@@ -28925,14 +29723,14 @@
       <c r="F515" s="11"/>
       <c r="G515" s="11"/>
       <c r="H515" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I515" s="12"/>
       <c r="J515" s="12"/>
       <c r="K515" s="12"/>
       <c r="L515" s="12"/>
       <c r="M515" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N515" s="14"/>
       <c r="O515" s="15"/>
@@ -28948,25 +29746,25 @@
       <c r="C516" s="12"/>
       <c r="D516" s="12"/>
       <c r="E516" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F516" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="G516" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="G516" s="12" t="s">
-        <v>511</v>
-      </c>
       <c r="H516" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I516" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J516" s="12"/>
       <c r="K516" s="12"/>
       <c r="L516" s="12"/>
       <c r="M516" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N516" s="14"/>
       <c r="O516" s="15"/>
@@ -28990,7 +29788,7 @@
       <c r="K517" s="12"/>
       <c r="L517" s="12"/>
       <c r="M517" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N517" s="14"/>
       <c r="O517" s="15"/>
@@ -29014,7 +29812,7 @@
       <c r="K518" s="12"/>
       <c r="L518" s="12"/>
       <c r="M518" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N518" s="14"/>
       <c r="O518" s="15"/>
@@ -29038,7 +29836,7 @@
       <c r="K519" s="12"/>
       <c r="L519" s="12"/>
       <c r="M519" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N519" s="14"/>
       <c r="O519" s="15"/>
@@ -29062,7 +29860,7 @@
       <c r="K520" s="12"/>
       <c r="L520" s="12"/>
       <c r="M520" s="13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N520" s="14"/>
       <c r="O520" s="15"/>
@@ -29086,7 +29884,7 @@
       <c r="K521" s="12"/>
       <c r="L521" s="12"/>
       <c r="M521" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N521" s="14"/>
       <c r="O521" s="15"/>
@@ -29104,19 +29902,19 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
       <c r="G522" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H522" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I522" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J522" s="11"/>
       <c r="K522" s="12"/>
       <c r="L522" s="12"/>
       <c r="M522" s="13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N522" s="14"/>
       <c r="O522" s="15"/>
@@ -29134,19 +29932,19 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
       <c r="G523" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H523" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I523" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J523" s="18"/>
       <c r="K523" s="12"/>
       <c r="L523" s="12"/>
       <c r="M523" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N523" s="14"/>
       <c r="O523" s="15"/>
@@ -29164,19 +29962,19 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
       <c r="G524" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H524" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I524" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J524" s="12"/>
       <c r="K524" s="12"/>
       <c r="L524" s="12"/>
       <c r="M524" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N524" s="14"/>
       <c r="O524" s="15"/>
@@ -29194,19 +29992,19 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
       <c r="G525" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H525" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I525" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J525" s="18"/>
       <c r="K525" s="18"/>
       <c r="L525" s="18"/>
       <c r="M525" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N525" s="14"/>
       <c r="O525" s="15"/>
@@ -29224,19 +30022,19 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
       <c r="G526" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H526" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I526" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J526" s="18"/>
       <c r="K526" s="18"/>
       <c r="L526" s="18"/>
       <c r="M526" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N526" s="14"/>
       <c r="O526" s="15"/>
@@ -29254,17 +30052,17 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
       <c r="G527" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H527" s="12"/>
       <c r="I527" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J527" s="18"/>
       <c r="K527" s="18"/>
       <c r="L527" s="18"/>
       <c r="M527" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N527" s="14"/>
       <c r="O527" s="15"/>
@@ -29282,17 +30080,17 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
       <c r="G528" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H528" s="12"/>
       <c r="I528" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J528" s="18"/>
       <c r="K528" s="18"/>
       <c r="L528" s="18"/>
       <c r="M528" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N528" s="14"/>
       <c r="O528" s="15"/>
@@ -29310,17 +30108,17 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
       <c r="G529" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H529" s="12"/>
       <c r="I529" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J529" s="18"/>
       <c r="K529" s="18"/>
       <c r="L529" s="18"/>
       <c r="M529" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N529" s="14"/>
       <c r="O529" s="15"/>
@@ -29338,17 +30136,17 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
       <c r="G530" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H530" s="12"/>
       <c r="I530" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J530" s="18"/>
       <c r="K530" s="18"/>
       <c r="L530" s="18"/>
       <c r="M530" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N530" s="14"/>
       <c r="O530" s="15"/>
@@ -29365,22 +30163,22 @@
       <c r="D531" s="12"/>
       <c r="E531" s="11"/>
       <c r="F531" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G531" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H531" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I531" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J531" s="18"/>
       <c r="K531" s="18"/>
       <c r="L531" s="18"/>
       <c r="M531" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N531" s="14"/>
       <c r="O531" s="15"/>
@@ -29398,17 +30196,17 @@
       <c r="E532" s="11"/>
       <c r="F532" s="11"/>
       <c r="G532" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H532" s="12"/>
       <c r="I532" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J532" s="18"/>
       <c r="K532" s="18"/>
       <c r="L532" s="18"/>
       <c r="M532" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N532" s="14"/>
       <c r="O532" s="15"/>
@@ -29426,17 +30224,17 @@
       <c r="E533" s="11"/>
       <c r="F533" s="11"/>
       <c r="G533" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H533" s="12"/>
       <c r="I533" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J533" s="18"/>
       <c r="K533" s="18"/>
       <c r="L533" s="18"/>
       <c r="M533" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N533" s="14"/>
       <c r="O533" s="15"/>
@@ -29454,17 +30252,17 @@
       <c r="E534" s="11"/>
       <c r="F534" s="11"/>
       <c r="G534" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H534" s="12"/>
       <c r="I534" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J534" s="18"/>
       <c r="K534" s="18"/>
       <c r="L534" s="18"/>
       <c r="M534" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N534" s="14"/>
       <c r="O534" s="15"/>
@@ -29482,17 +30280,17 @@
       <c r="E535" s="11"/>
       <c r="F535" s="11"/>
       <c r="G535" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H535" s="12"/>
       <c r="I535" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J535" s="18"/>
       <c r="K535" s="18"/>
       <c r="L535" s="18"/>
       <c r="M535" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N535" s="14"/>
       <c r="O535" s="15"/>
@@ -29510,17 +30308,17 @@
       <c r="E536" s="11"/>
       <c r="F536" s="11"/>
       <c r="G536" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H536" s="12"/>
       <c r="I536" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J536" s="18"/>
       <c r="K536" s="18"/>
       <c r="L536" s="18"/>
       <c r="M536" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N536" s="14"/>
       <c r="O536" s="15"/>
@@ -29536,25 +30334,25 @@
       <c r="C537" s="12"/>
       <c r="D537" s="12"/>
       <c r="E537" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F537" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="G537" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="H537" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="F537" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="G537" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="H537" s="11" t="s">
-        <v>523</v>
-      </c>
       <c r="I537" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J537" s="18"/>
       <c r="K537" s="12"/>
       <c r="L537" s="12"/>
       <c r="M537" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N537" s="14"/>
       <c r="O537" s="15"/>
@@ -29572,19 +30370,19 @@
       <c r="E538" s="11"/>
       <c r="F538" s="11"/>
       <c r="G538" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H538" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I538" s="11"/>
       <c r="J538" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K538" s="12"/>
       <c r="L538" s="12"/>
       <c r="M538" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N538" s="14"/>
       <c r="O538" s="15"/>
@@ -29608,7 +30406,7 @@
       <c r="K539" s="18"/>
       <c r="L539" s="18"/>
       <c r="M539" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N539" s="14"/>
       <c r="O539" s="15"/>
@@ -29623,16 +30421,16 @@
       <c r="B540" s="28"/>
       <c r="C540" s="28"/>
       <c r="D540" s="29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E540" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="F540" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="G540" s="29" t="s">
         <v>501</v>
-      </c>
-      <c r="F540" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G540" s="29" t="s">
-        <v>503</v>
       </c>
       <c r="H540" s="30"/>
       <c r="I540" s="28"/>
@@ -29640,16 +30438,16 @@
       <c r="K540" s="28"/>
       <c r="L540" s="28"/>
       <c r="M540" s="66" t="s">
-        <v>763</v>
-      </c>
-      <c r="N540" s="84" t="s">
-        <v>781</v>
+        <v>761</v>
+      </c>
+      <c r="N540" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O540" s="15">
         <v>45624</v>
       </c>
       <c r="P540" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q540" s="16"/>
     </row>
@@ -29663,10 +30461,10 @@
       <c r="D541" s="28"/>
       <c r="E541" s="29"/>
       <c r="F541" s="29" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G541" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H541" s="29"/>
       <c r="I541" s="28"/>
@@ -29674,16 +30472,16 @@
       <c r="K541" s="28"/>
       <c r="L541" s="28"/>
       <c r="M541" s="66" t="s">
-        <v>763</v>
-      </c>
-      <c r="N541" s="84" t="s">
-        <v>781</v>
+        <v>761</v>
+      </c>
+      <c r="N541" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O541" s="15">
         <v>45623</v>
       </c>
       <c r="P541" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q541" s="16"/>
     </row>
@@ -29696,13 +30494,13 @@
       <c r="C542" s="28"/>
       <c r="D542" s="28"/>
       <c r="E542" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F542" s="29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G542" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H542" s="29"/>
       <c r="I542" s="28"/>
@@ -29710,16 +30508,16 @@
       <c r="K542" s="28"/>
       <c r="L542" s="28"/>
       <c r="M542" s="67" t="s">
-        <v>764</v>
-      </c>
-      <c r="N542" s="84" t="s">
-        <v>781</v>
+        <v>762</v>
+      </c>
+      <c r="N542" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O542" s="15">
         <v>45623</v>
       </c>
       <c r="P542" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q542" s="16"/>
     </row>
@@ -29733,29 +30531,29 @@
       <c r="D543" s="28"/>
       <c r="E543" s="29"/>
       <c r="F543" s="29" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G543" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H543" s="29"/>
       <c r="I543" s="28"/>
       <c r="J543" s="28"/>
       <c r="K543" s="28"/>
       <c r="L543" s="68" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M543" s="67" t="s">
-        <v>765</v>
-      </c>
-      <c r="N543" s="84" t="s">
-        <v>781</v>
+        <v>763</v>
+      </c>
+      <c r="N543" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O543" s="15">
         <v>45623</v>
       </c>
       <c r="P543" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q543" s="16"/>
     </row>
@@ -29782,14 +30580,14 @@
       <c r="M544" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="N544" s="84" t="s">
-        <v>781</v>
+      <c r="N544" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O544" s="15">
         <v>45623</v>
       </c>
       <c r="P544" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q544" s="16"/>
     </row>
@@ -29803,7 +30601,7 @@
       <c r="D545" s="28"/>
       <c r="E545" s="28"/>
       <c r="F545" s="28" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G545" s="29"/>
       <c r="H545" s="29"/>
@@ -29812,16 +30610,16 @@
       <c r="K545" s="29"/>
       <c r="L545" s="29"/>
       <c r="M545" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="N545" s="84" t="s">
-        <v>781</v>
+        <v>772</v>
+      </c>
+      <c r="N545" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O545" s="15">
         <v>45623</v>
       </c>
       <c r="P545" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q545" s="16"/>
     </row>
@@ -29834,36 +30632,36 @@
       <c r="C546" s="28"/>
       <c r="D546" s="28"/>
       <c r="E546" s="29" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F546" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="G546" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="H546" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="G546" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="H546" s="28" t="s">
-        <v>511</v>
-      </c>
       <c r="I546" s="28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J546" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K546" s="29"/>
       <c r="L546" s="29"/>
       <c r="M546" s="29" t="s">
-        <v>767</v>
-      </c>
-      <c r="N546" s="84" t="s">
-        <v>781</v>
+        <v>765</v>
+      </c>
+      <c r="N546" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O546" s="15">
         <v>45623</v>
       </c>
       <c r="P546" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q546" s="16"/>
     </row>
@@ -29882,20 +30680,20 @@
       <c r="I547" s="29"/>
       <c r="J547" s="29"/>
       <c r="K547" s="29" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L547" s="29"/>
       <c r="M547" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="N547" s="84" t="s">
-        <v>781</v>
+        <v>766</v>
+      </c>
+      <c r="N547" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O547" s="15">
         <v>45623</v>
       </c>
       <c r="P547" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q547" s="16"/>
     </row>
@@ -29915,19 +30713,19 @@
       <c r="J548" s="29"/>
       <c r="K548" s="29"/>
       <c r="L548" s="29" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M548" s="29" t="s">
-        <v>769</v>
-      </c>
-      <c r="N548" s="84" t="s">
-        <v>781</v>
+        <v>767</v>
+      </c>
+      <c r="N548" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O548" s="15">
         <v>45623</v>
       </c>
       <c r="P548" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q548" s="16"/>
     </row>
@@ -29948,16 +30746,16 @@
       <c r="K549" s="29"/>
       <c r="L549" s="29"/>
       <c r="M549" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="N549" s="84" t="s">
-        <v>781</v>
+        <v>532</v>
+      </c>
+      <c r="N549" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O549" s="15">
         <v>45623</v>
       </c>
       <c r="P549" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q549" s="16"/>
     </row>
@@ -29978,16 +30776,16 @@
       <c r="K550" s="29"/>
       <c r="L550" s="29"/>
       <c r="M550" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="N550" s="84" t="s">
-        <v>781</v>
+        <v>531</v>
+      </c>
+      <c r="N550" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O550" s="15">
         <v>45623</v>
       </c>
       <c r="P550" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q550" s="16"/>
     </row>
@@ -30008,16 +30806,16 @@
       <c r="K551" s="29"/>
       <c r="L551" s="29"/>
       <c r="M551" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="N551" s="84" t="s">
-        <v>781</v>
+        <v>554</v>
+      </c>
+      <c r="N551" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O551" s="15">
         <v>45623</v>
       </c>
       <c r="P551" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q551" s="16"/>
     </row>
@@ -30038,16 +30836,16 @@
       <c r="K552" s="29"/>
       <c r="L552" s="29"/>
       <c r="M552" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="N552" s="84" t="s">
-        <v>781</v>
+        <v>533</v>
+      </c>
+      <c r="N552" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O552" s="15">
         <v>45623</v>
       </c>
       <c r="P552" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q552" s="16"/>
     </row>
@@ -30068,16 +30866,16 @@
       <c r="K553" s="28"/>
       <c r="L553" s="28"/>
       <c r="M553" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="N553" s="84" t="s">
-        <v>781</v>
+        <v>534</v>
+      </c>
+      <c r="N553" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O553" s="15">
         <v>45623</v>
       </c>
       <c r="P553" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q553" s="16"/>
     </row>
@@ -30098,16 +30896,16 @@
       <c r="K554" s="28"/>
       <c r="L554" s="28"/>
       <c r="M554" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="N554" s="84" t="s">
-        <v>781</v>
+        <v>535</v>
+      </c>
+      <c r="N554" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O554" s="15">
         <v>45623</v>
       </c>
       <c r="P554" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q554" s="16"/>
     </row>
@@ -30123,27 +30921,27 @@
       <c r="F555" s="29"/>
       <c r="G555" s="29"/>
       <c r="H555" s="28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I555" s="28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J555" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K555" s="28"/>
       <c r="L555" s="28"/>
       <c r="M555" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="N555" s="84" t="s">
-        <v>781</v>
+        <v>543</v>
+      </c>
+      <c r="N555" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O555" s="15">
         <v>45623</v>
       </c>
       <c r="P555" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q555" s="16"/>
     </row>
@@ -30159,27 +30957,27 @@
       <c r="F556" s="29"/>
       <c r="G556" s="29"/>
       <c r="H556" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I556" s="28" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J556" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K556" s="28"/>
       <c r="L556" s="28"/>
       <c r="M556" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="N556" s="84" t="s">
-        <v>781</v>
+        <v>544</v>
+      </c>
+      <c r="N556" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O556" s="15">
         <v>45623</v>
       </c>
       <c r="P556" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q556" s="16"/>
     </row>
@@ -30195,27 +30993,27 @@
       <c r="F557" s="29"/>
       <c r="G557" s="29"/>
       <c r="H557" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I557" s="28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J557" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K557" s="28"/>
       <c r="L557" s="28"/>
       <c r="M557" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="N557" s="84" t="s">
-        <v>781</v>
+        <v>546</v>
+      </c>
+      <c r="N557" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O557" s="15">
         <v>45623</v>
       </c>
       <c r="P557" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q557" s="16"/>
     </row>
@@ -30231,27 +31029,27 @@
       <c r="F558" s="29"/>
       <c r="G558" s="28"/>
       <c r="H558" s="28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I558" s="28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J558" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K558" s="30"/>
       <c r="L558" s="30"/>
       <c r="M558" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="N558" s="84" t="s">
-        <v>781</v>
+        <v>547</v>
+      </c>
+      <c r="N558" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O558" s="15">
         <v>45623</v>
       </c>
       <c r="P558" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q558" s="16"/>
     </row>
@@ -30267,30 +31065,30 @@
       <c r="F559" s="29"/>
       <c r="G559" s="28"/>
       <c r="H559" s="28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I559" s="69" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J559" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K559" s="30"/>
       <c r="L559" s="30"/>
       <c r="M559" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="N559" s="84" t="s">
-        <v>781</v>
+        <v>545</v>
+      </c>
+      <c r="N559" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O559" s="15">
         <v>45623</v>
       </c>
       <c r="P559" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q559" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="560" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
@@ -30305,25 +31103,25 @@
       <c r="F560" s="29"/>
       <c r="G560" s="28"/>
       <c r="H560" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I560" s="28"/>
       <c r="J560" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K560" s="30"/>
       <c r="L560" s="30"/>
       <c r="M560" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="N560" s="84" t="s">
-        <v>781</v>
+        <v>538</v>
+      </c>
+      <c r="N560" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O560" s="15">
         <v>45623</v>
       </c>
       <c r="P560" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q560" s="16"/>
     </row>
@@ -30339,25 +31137,25 @@
       <c r="F561" s="29"/>
       <c r="G561" s="28"/>
       <c r="H561" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I561" s="28"/>
       <c r="J561" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K561" s="30"/>
       <c r="L561" s="30"/>
       <c r="M561" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="N561" s="84" t="s">
-        <v>781</v>
+        <v>539</v>
+      </c>
+      <c r="N561" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O561" s="15">
         <v>45623</v>
       </c>
       <c r="P561" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q561" s="16"/>
     </row>
@@ -30373,25 +31171,25 @@
       <c r="F562" s="29"/>
       <c r="G562" s="28"/>
       <c r="H562" s="28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I562" s="28"/>
       <c r="J562" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K562" s="30"/>
       <c r="L562" s="30"/>
       <c r="M562" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="N562" s="84" t="s">
-        <v>781</v>
+        <v>540</v>
+      </c>
+      <c r="N562" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O562" s="15">
         <v>45623</v>
       </c>
       <c r="P562" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q562" s="16"/>
     </row>
@@ -30407,25 +31205,25 @@
       <c r="F563" s="29"/>
       <c r="G563" s="28"/>
       <c r="H563" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I563" s="28"/>
       <c r="J563" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K563" s="30"/>
       <c r="L563" s="30"/>
       <c r="M563" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="N563" s="84" t="s">
-        <v>781</v>
+        <v>541</v>
+      </c>
+      <c r="N563" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O563" s="15">
         <v>45623</v>
       </c>
       <c r="P563" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q563" s="16"/>
     </row>
@@ -30439,33 +31237,33 @@
       <c r="D564" s="28"/>
       <c r="E564" s="29"/>
       <c r="F564" s="29" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G564" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H564" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I564" s="28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J564" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K564" s="29"/>
       <c r="L564" s="29"/>
       <c r="M564" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="N564" s="84" t="s">
-        <v>781</v>
+        <v>497</v>
+      </c>
+      <c r="N564" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O564" s="15">
         <v>45623</v>
       </c>
       <c r="P564" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q564" s="16"/>
     </row>
@@ -30484,20 +31282,20 @@
       <c r="I565" s="29"/>
       <c r="J565" s="29"/>
       <c r="K565" s="29" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L565" s="29"/>
       <c r="M565" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="N565" s="84" t="s">
-        <v>781</v>
+        <v>542</v>
+      </c>
+      <c r="N565" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O565" s="15">
         <v>45623</v>
       </c>
       <c r="P565" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q565" s="16"/>
     </row>
@@ -30517,22 +31315,22 @@
       <c r="J566" s="29"/>
       <c r="K566" s="29"/>
       <c r="L566" s="29" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M566" s="69" t="s">
-        <v>778</v>
-      </c>
-      <c r="N566" s="84" t="s">
-        <v>781</v>
+        <v>776</v>
+      </c>
+      <c r="N566" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O566" s="15">
         <v>45623</v>
       </c>
       <c r="P566" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q566" s="16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="567" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
@@ -30547,28 +31345,28 @@
       <c r="F567" s="29"/>
       <c r="G567" s="28"/>
       <c r="H567" s="28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I567" s="28"/>
       <c r="J567" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K567" s="30"/>
       <c r="L567" s="30"/>
       <c r="M567" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="N567" s="84" t="s">
-        <v>781</v>
+        <v>774</v>
+      </c>
+      <c r="N567" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O567" s="15">
         <v>45623</v>
       </c>
       <c r="P567" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q567" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="568" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -30583,25 +31381,25 @@
       <c r="F568" s="29"/>
       <c r="G568" s="28"/>
       <c r="H568" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I568" s="28"/>
       <c r="J568" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K568" s="30"/>
       <c r="L568" s="30"/>
       <c r="M568" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="N568" s="84" t="s">
-        <v>781</v>
+        <v>542</v>
+      </c>
+      <c r="N568" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O568" s="15">
         <v>45623</v>
       </c>
       <c r="P568" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q568" s="16"/>
     </row>
@@ -30617,25 +31415,25 @@
       <c r="F569" s="29"/>
       <c r="G569" s="28"/>
       <c r="H569" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I569" s="28"/>
       <c r="J569" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K569" s="30"/>
       <c r="L569" s="30"/>
       <c r="M569" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="N569" s="84" t="s">
-        <v>781</v>
+        <v>542</v>
+      </c>
+      <c r="N569" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O569" s="15">
         <v>45623</v>
       </c>
       <c r="P569" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q569" s="16"/>
     </row>
@@ -30651,25 +31449,25 @@
       <c r="F570" s="29"/>
       <c r="G570" s="28"/>
       <c r="H570" s="28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I570" s="28"/>
       <c r="J570" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K570" s="30"/>
       <c r="L570" s="30"/>
       <c r="M570" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="N570" s="84" t="s">
-        <v>781</v>
+        <v>540</v>
+      </c>
+      <c r="N570" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O570" s="15">
         <v>45623</v>
       </c>
       <c r="P570" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q570" s="16"/>
     </row>
@@ -30685,25 +31483,25 @@
       <c r="F571" s="29"/>
       <c r="G571" s="28"/>
       <c r="H571" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I571" s="28"/>
       <c r="J571" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K571" s="30"/>
       <c r="L571" s="30"/>
       <c r="M571" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="N571" s="84" t="s">
-        <v>781</v>
+        <v>541</v>
+      </c>
+      <c r="N571" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O571" s="15">
         <v>45623</v>
       </c>
       <c r="P571" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q571" s="16"/>
     </row>
@@ -30716,36 +31514,36 @@
       <c r="C572" s="28"/>
       <c r="D572" s="28"/>
       <c r="E572" s="29" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F572" s="29" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G572" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H572" s="29" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I572" s="29" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J572" s="29" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K572" s="28"/>
       <c r="L572" s="28"/>
       <c r="M572" s="29" t="s">
-        <v>551</v>
-      </c>
-      <c r="N572" s="84" t="s">
-        <v>781</v>
+        <v>549</v>
+      </c>
+      <c r="N572" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O572" s="15">
         <v>45623</v>
       </c>
       <c r="P572" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q572" s="16"/>
     </row>
@@ -30761,27 +31559,27 @@
       <c r="F573" s="29"/>
       <c r="G573" s="29"/>
       <c r="H573" s="61" t="s">
+        <v>756</v>
+      </c>
+      <c r="I573" s="61" t="s">
         <v>758</v>
       </c>
-      <c r="I573" s="61" t="s">
-        <v>760</v>
-      </c>
       <c r="J573" s="61" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K573" s="62"/>
       <c r="L573" s="62"/>
       <c r="M573" s="61" t="s">
-        <v>555</v>
-      </c>
-      <c r="N573" s="84" t="s">
-        <v>781</v>
+        <v>553</v>
+      </c>
+      <c r="N573" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O573" s="15">
         <v>45623</v>
       </c>
       <c r="P573" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q573" s="16"/>
     </row>
@@ -30802,16 +31600,16 @@
       <c r="K574" s="65"/>
       <c r="L574" s="65"/>
       <c r="M574" s="64" t="s">
-        <v>552</v>
-      </c>
-      <c r="N574" s="84" t="s">
-        <v>781</v>
+        <v>550</v>
+      </c>
+      <c r="N574" s="70" t="s">
+        <v>779</v>
       </c>
       <c r="O574" s="15">
         <v>45623</v>
       </c>
       <c r="P574" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q574" s="16"/>
     </row>
@@ -30823,13 +31621,13 @@
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
       <c r="D575" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E575" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F575" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G575" s="18"/>
       <c r="H575" s="11"/>
@@ -30838,7 +31636,7 @@
       <c r="K575" s="18"/>
       <c r="L575" s="18"/>
       <c r="M575" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N575" s="14"/>
       <c r="O575" s="15"/>
@@ -30854,10 +31652,10 @@
       <c r="C576" s="12"/>
       <c r="D576" s="12"/>
       <c r="E576" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F576" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G576" s="18"/>
       <c r="H576" s="18"/>
@@ -30866,7 +31664,7 @@
       <c r="K576" s="12"/>
       <c r="L576" s="12"/>
       <c r="M576" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N576" s="14"/>
       <c r="O576" s="15"/>
@@ -30883,10 +31681,10 @@
       <c r="D577" s="12"/>
       <c r="E577" s="11"/>
       <c r="F577" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G577" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H577" s="11"/>
       <c r="I577" s="11"/>
@@ -30894,7 +31692,7 @@
       <c r="K577" s="11"/>
       <c r="L577" s="11"/>
       <c r="M577" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N577" s="14"/>
       <c r="O577" s="15"/>
@@ -30911,10 +31709,10 @@
       <c r="D578" s="12"/>
       <c r="E578" s="11"/>
       <c r="F578" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G578" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H578" s="18"/>
       <c r="I578" s="12"/>
@@ -30922,7 +31720,7 @@
       <c r="K578" s="12"/>
       <c r="L578" s="12"/>
       <c r="M578" s="25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N578" s="14"/>
       <c r="O578" s="15"/>
@@ -30939,10 +31737,10 @@
       <c r="D579" s="12"/>
       <c r="E579" s="11"/>
       <c r="F579" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G579" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H579" s="18"/>
       <c r="I579" s="12"/>
@@ -30950,7 +31748,7 @@
       <c r="K579" s="12"/>
       <c r="L579" s="12"/>
       <c r="M579" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N579" s="14"/>
       <c r="O579" s="15"/>
@@ -30969,14 +31767,14 @@
       <c r="F580" s="11"/>
       <c r="G580" s="18"/>
       <c r="H580" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I580" s="12"/>
       <c r="J580" s="12"/>
       <c r="K580" s="12"/>
       <c r="L580" s="12"/>
       <c r="M580" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N580" s="14"/>
       <c r="O580" s="15"/>
@@ -30995,14 +31793,14 @@
       <c r="F581" s="11"/>
       <c r="G581" s="18"/>
       <c r="H581" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I581" s="18"/>
       <c r="J581" s="18"/>
       <c r="K581" s="18"/>
       <c r="L581" s="18"/>
       <c r="M581" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N581" s="14"/>
       <c r="O581" s="15"/>
@@ -31022,13 +31820,13 @@
       <c r="G582" s="18"/>
       <c r="H582" s="18"/>
       <c r="I582" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J582" s="18"/>
       <c r="K582" s="18"/>
       <c r="L582" s="18"/>
       <c r="M582" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N582" s="14"/>
       <c r="O582" s="15"/>
@@ -31044,7 +31842,7 @@
       <c r="C583" s="12"/>
       <c r="D583" s="12"/>
       <c r="E583" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F583" s="11"/>
       <c r="G583" s="18"/>
@@ -31054,7 +31852,7 @@
       <c r="K583" s="18"/>
       <c r="L583" s="18"/>
       <c r="M583" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N583" s="14"/>
       <c r="O583" s="15"/>
@@ -31069,16 +31867,16 @@
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
       <c r="D584" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E584" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F584" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="G584" s="18" t="s">
         <v>570</v>
-      </c>
-      <c r="F584" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G584" s="18" t="s">
-        <v>572</v>
       </c>
       <c r="H584" s="18"/>
       <c r="I584" s="18"/>
@@ -31086,7 +31884,7 @@
       <c r="K584" s="18"/>
       <c r="L584" s="18"/>
       <c r="M584" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N584" s="14"/>
       <c r="O584" s="15"/>
@@ -31103,10 +31901,10 @@
       <c r="D585" s="12"/>
       <c r="E585" s="11"/>
       <c r="F585" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G585" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H585" s="18"/>
       <c r="I585" s="18"/>
@@ -31114,7 +31912,7 @@
       <c r="K585" s="18"/>
       <c r="L585" s="18"/>
       <c r="M585" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N585" s="14"/>
       <c r="O585" s="15"/>
@@ -31129,13 +31927,13 @@
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
       <c r="D586" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E586" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="F586" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="F586" s="11" t="s">
-        <v>586</v>
       </c>
       <c r="G586" s="18"/>
       <c r="H586" s="18"/>
@@ -31144,7 +31942,7 @@
       <c r="K586" s="18"/>
       <c r="L586" s="18"/>
       <c r="M586" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N586" s="14"/>
       <c r="O586" s="15"/>
@@ -31160,10 +31958,10 @@
       <c r="C587" s="12"/>
       <c r="D587" s="12"/>
       <c r="E587" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F587" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G587" s="18"/>
       <c r="H587" s="18"/>
@@ -31172,7 +31970,7 @@
       <c r="K587" s="18"/>
       <c r="L587" s="18"/>
       <c r="M587" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N587" s="14"/>
       <c r="O587" s="15"/>
@@ -31196,7 +31994,7 @@
       <c r="K588" s="18"/>
       <c r="L588" s="18"/>
       <c r="M588" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N588" s="14"/>
       <c r="O588" s="15"/>
@@ -31220,7 +32018,7 @@
       <c r="K589" s="18"/>
       <c r="L589" s="18"/>
       <c r="M589" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N589" s="14"/>
       <c r="O589" s="15"/>
@@ -31244,7 +32042,7 @@
       <c r="K590" s="18"/>
       <c r="L590" s="18"/>
       <c r="M590" s="13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N590" s="14"/>
       <c r="O590" s="15"/>
@@ -31259,13 +32057,13 @@
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
       <c r="D591" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E591" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="F591" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="F591" s="11" t="s">
-        <v>586</v>
       </c>
       <c r="G591" s="18"/>
       <c r="H591" s="18"/>
@@ -31274,7 +32072,7 @@
       <c r="K591" s="18"/>
       <c r="L591" s="18"/>
       <c r="M591" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N591" s="14"/>
       <c r="O591" s="15"/>
@@ -31290,10 +32088,10 @@
       <c r="C592" s="12"/>
       <c r="D592" s="12"/>
       <c r="E592" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F592" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G592" s="18"/>
       <c r="H592" s="18"/>
@@ -31302,7 +32100,7 @@
       <c r="K592" s="18"/>
       <c r="L592" s="18"/>
       <c r="M592" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N592" s="14"/>
       <c r="O592" s="15"/>
@@ -31326,7 +32124,7 @@
       <c r="K593" s="18"/>
       <c r="L593" s="18"/>
       <c r="M593" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N593" s="14"/>
       <c r="O593" s="15"/>
@@ -31350,7 +32148,7 @@
       <c r="K594" s="18"/>
       <c r="L594" s="18"/>
       <c r="M594" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N594" s="14"/>
       <c r="O594" s="15"/>
@@ -31374,7 +32172,7 @@
       <c r="K595" s="18"/>
       <c r="L595" s="18"/>
       <c r="M595" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N595" s="14"/>
       <c r="O595" s="15"/>
@@ -31398,7 +32196,7 @@
       <c r="K596" s="18"/>
       <c r="L596" s="18"/>
       <c r="M596" s="13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N596" s="14"/>
       <c r="O596" s="15"/>
@@ -31413,10 +32211,10 @@
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
       <c r="D597" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E597" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F597" s="11"/>
       <c r="G597" s="18"/>
@@ -31426,7 +32224,7 @@
       <c r="K597" s="18"/>
       <c r="L597" s="18"/>
       <c r="M597" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N597" s="14"/>
       <c r="O597" s="15"/>
@@ -31442,10 +32240,10 @@
       <c r="C598" s="12"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F598" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G598" s="11"/>
       <c r="H598" s="12"/>
@@ -31454,7 +32252,7 @@
       <c r="K598" s="12"/>
       <c r="L598" s="12"/>
       <c r="M598" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N598" s="14"/>
       <c r="O598" s="15"/>
@@ -31471,7 +32269,7 @@
         <v>81</v>
       </c>
       <c r="D599" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E599" s="11"/>
       <c r="F599" s="11"/>
@@ -31482,7 +32280,7 @@
       <c r="K599" s="12"/>
       <c r="L599" s="12"/>
       <c r="M599" s="13" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N599" s="14"/>
       <c r="O599" s="15"/>
@@ -31496,19 +32294,19 @@
       </c>
       <c r="B600" s="12"/>
       <c r="C600" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="D600" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="E600" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F600" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="D600" s="11" t="s">
+      <c r="G600" s="12" t="s">
         <v>614</v>
-      </c>
-      <c r="E600" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F600" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="G600" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="H600" s="11"/>
       <c r="I600" s="12"/>
@@ -31516,7 +32314,7 @@
       <c r="K600" s="12"/>
       <c r="L600" s="12"/>
       <c r="M600" s="13" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N600" s="14"/>
       <c r="O600" s="15"/>
@@ -31532,13 +32330,13 @@
       <c r="C601" s="12"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F601" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G601" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H601" s="11"/>
       <c r="I601" s="12"/>
@@ -31546,7 +32344,7 @@
       <c r="K601" s="12"/>
       <c r="L601" s="12"/>
       <c r="M601" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N601" s="14"/>
       <c r="O601" s="15"/>
@@ -31562,13 +32360,13 @@
       <c r="C602" s="12"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F602" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G602" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H602" s="11"/>
       <c r="I602" s="12"/>
@@ -31576,7 +32374,7 @@
       <c r="K602" s="12"/>
       <c r="L602" s="12"/>
       <c r="M602" s="13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N602" s="14"/>
       <c r="O602" s="15"/>
@@ -31593,10 +32391,10 @@
       <c r="D603" s="12"/>
       <c r="E603" s="11"/>
       <c r="F603" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G603" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H603" s="12"/>
       <c r="I603" s="12"/>
@@ -31604,7 +32402,7 @@
       <c r="K603" s="12"/>
       <c r="L603" s="12"/>
       <c r="M603" s="13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N603" s="14"/>
       <c r="O603" s="15"/>
@@ -31620,13 +32418,13 @@
       <c r="C604" s="12"/>
       <c r="D604" s="12"/>
       <c r="E604" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F604" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G604" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H604" s="12"/>
       <c r="I604" s="12"/>
@@ -31634,7 +32432,7 @@
       <c r="K604" s="12"/>
       <c r="L604" s="12"/>
       <c r="M604" s="13" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N604" s="14"/>
       <c r="O604" s="15"/>
@@ -31650,13 +32448,13 @@
       <c r="C605" s="12"/>
       <c r="D605" s="12"/>
       <c r="E605" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F605" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="G605" s="11" t="s">
         <v>619</v>
-      </c>
-      <c r="G605" s="11" t="s">
-        <v>621</v>
       </c>
       <c r="H605" s="12"/>
       <c r="I605" s="12"/>
@@ -31664,7 +32462,7 @@
       <c r="K605" s="12"/>
       <c r="L605" s="12"/>
       <c r="M605" s="13" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N605" s="14"/>
       <c r="O605" s="15"/>
@@ -31680,13 +32478,13 @@
       <c r="C606" s="12"/>
       <c r="D606" s="12"/>
       <c r="E606" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F606" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G606" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H606" s="12"/>
       <c r="I606" s="12"/>
@@ -31694,7 +32492,7 @@
       <c r="K606" s="12"/>
       <c r="L606" s="12"/>
       <c r="M606" s="13" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N606" s="14"/>
       <c r="O606" s="15"/>
@@ -31710,13 +32508,13 @@
       <c r="C607" s="12"/>
       <c r="D607" s="12"/>
       <c r="E607" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F607" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G607" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H607" s="12"/>
       <c r="I607" s="12"/>
@@ -31724,7 +32522,7 @@
       <c r="K607" s="12"/>
       <c r="L607" s="12"/>
       <c r="M607" s="13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N607" s="14"/>
       <c r="O607" s="15"/>
@@ -31738,19 +32536,19 @@
       </c>
       <c r="B608" s="12"/>
       <c r="C608" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D608" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E608" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F608" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G608" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H608" s="11"/>
       <c r="I608" s="12"/>
@@ -31758,7 +32556,7 @@
       <c r="K608" s="12"/>
       <c r="L608" s="12"/>
       <c r="M608" s="13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N608" s="14"/>
       <c r="O608" s="15"/>
@@ -31774,25 +32572,25 @@
       <c r="C609" s="12"/>
       <c r="D609" s="12"/>
       <c r="E609" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F609" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G609" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H609" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I609" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J609" s="12"/>
       <c r="K609" s="12"/>
       <c r="L609" s="12"/>
       <c r="M609" s="13" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N609" s="14"/>
       <c r="O609" s="15"/>
@@ -31808,25 +32606,25 @@
       <c r="C610" s="12"/>
       <c r="D610" s="12"/>
       <c r="E610" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F610" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G610" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H610" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I610" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J610" s="12"/>
       <c r="K610" s="12"/>
       <c r="L610" s="12"/>
       <c r="M610" s="13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N610" s="14"/>
       <c r="O610" s="15"/>
@@ -31840,31 +32638,31 @@
       </c>
       <c r="B611" s="12"/>
       <c r="C611" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D611" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E611" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="E611" s="11" t="s">
-        <v>646</v>
-      </c>
       <c r="F611" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G611" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H611" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I611" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J611" s="12"/>
       <c r="K611" s="12"/>
       <c r="L611" s="12"/>
       <c r="M611" s="13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N611" s="14"/>
       <c r="O611" s="15"/>
